--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_8_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_8_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2472683.268347631</v>
+        <v>2544960.980971859</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8192178.521899444</v>
+        <v>6458892.370298208</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>340528.8729729601</v>
+        <v>340528.8729729602</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7033736.133667335</v>
+        <v>7151701.230365238</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>9.296133010958</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -671,13 +671,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>16.8201079258493</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>376.345861640856</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>115.1772705403155</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>16.8201079258493</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>16.8201079258493</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>14.81515106108805</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>16.8201079258493</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>16.8201079258493</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>16.8201079258493</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>14.81515106108805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>238.7610273791251</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>297.5903678466007</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>132.1404424656903</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>136.7541535684212</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>136.7541535684212</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>1.165170615470079</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>14.68105806280205</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>136.7541535684212</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>136.7541535684212</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>136.7541535684212</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="7">
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>136.7541535684212</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>5.270473026348249</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>136.7541535684212</v>
+        <v>19.93406768031545</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>136.7541535684212</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>337.0933363842214</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>390.1527797502169</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>390.1527797502169</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>50.12014140100006</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1221,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>57.11049760307137</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
         <v>195.3773027531635</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>38.28263745269047</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.06736062834969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>335.7358826154219</v>
       </c>
       <c r="E11" t="n">
-        <v>345.5134053358249</v>
+        <v>345.5134053358241</v>
       </c>
       <c r="F11" t="n">
         <v>352.1366999334012</v>
@@ -1537,13 +1537,13 @@
         <v>94.61829898791561</v>
       </c>
       <c r="F13" t="n">
-        <v>98.30140663806654</v>
+        <v>98.30140663806651</v>
       </c>
       <c r="G13" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H13" t="n">
-        <v>83.42797265014958</v>
+        <v>83.4279726501498</v>
       </c>
       <c r="I13" t="n">
         <v>50.49917744426899</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.24485646139267</v>
+        <v>69.24485646139203</v>
       </c>
       <c r="T14" t="n">
         <v>155.3010112201617</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.73658314890617</v>
+        <v>19.73658314890623</v>
       </c>
       <c r="S16" t="n">
         <v>119.8444424464407</v>
@@ -1895,7 +1895,7 @@
         <v>69.24485646139203</v>
       </c>
       <c r="T17" t="n">
-        <v>155.301011220161</v>
+        <v>155.3010112201617</v>
       </c>
       <c r="U17" t="n">
         <v>189.8064788306369</v>
@@ -2014,7 +2014,7 @@
         <v>98.30140663806654</v>
       </c>
       <c r="G19" t="n">
-        <v>100.8944791712639</v>
+        <v>100.8944791712642</v>
       </c>
       <c r="H19" t="n">
         <v>83.4279726501498</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.73658314890617</v>
+        <v>19.73658314890623</v>
       </c>
       <c r="S19" t="n">
         <v>119.8444424464407</v>
@@ -2257,7 +2257,7 @@
         <v>83.4279726501498</v>
       </c>
       <c r="I22" t="n">
-        <v>50.49917744426899</v>
+        <v>50.49917744426915</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>331.9535558602889</v>
       </c>
       <c r="Y23" t="n">
-        <v>332.2438983289426</v>
+        <v>332.2438983289427</v>
       </c>
     </row>
     <row r="24">
@@ -2491,7 +2491,7 @@
         <v>100.8944791712639</v>
       </c>
       <c r="H25" t="n">
-        <v>83.4279726501498</v>
+        <v>83.42797265014939</v>
       </c>
       <c r="I25" t="n">
         <v>50.49917744426899</v>
@@ -2713,13 +2713,13 @@
         <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>33.12209635668113</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>54.92104941501635</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>170.2381742780175</v>
       </c>
       <c r="U28" t="n">
         <v>250.4712242529991</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>104.4834163879009</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S31" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>141.2477878627849</v>
       </c>
       <c r="W31" t="n">
         <v>246.7800261198764</v>
@@ -3016,7 +3016,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>341.4355598753965</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C32" t="n">
-        <v>341.3399367874144</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D32" t="n">
-        <v>335.7358826154219</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
-        <v>345.5134053358241</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F32" t="n">
-        <v>352.1366999334012</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G32" t="n">
-        <v>339.957593273648</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H32" t="n">
-        <v>243.1160044061111</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>20.80483706364946</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.24485646139203</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T32" t="n">
-        <v>155.3010112201617</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U32" t="n">
-        <v>189.8064788306369</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V32" t="n">
-        <v>281.655771124436</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W32" t="n">
-        <v>315.239289863735</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X32" t="n">
-        <v>331.9535558602889</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y32" t="n">
-        <v>332.2438983289427</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>121.1393013376558</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
-        <v>104.6990307214525</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D34" t="n">
-        <v>93.21629023787096</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>94.61829898791561</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>98.30140663806654</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>100.8944791712639</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.4279726501498</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>50.49917744426899</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.73658314890623</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>119.8444424464407</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
-        <v>172.4698436406168</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
-        <v>215.286757986889</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V34" t="n">
-        <v>206.4634796174252</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W34" t="n">
-        <v>211.5955598537662</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X34" t="n">
-        <v>171.2770155264653</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>157.8049336326748</v>
+        <v>11.34628342889404</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>341.4355598753965</v>
+        <v>374.5615848634922</v>
       </c>
       <c r="C35" t="n">
-        <v>341.3399367874144</v>
+        <v>374.4659617755102</v>
       </c>
       <c r="D35" t="n">
-        <v>335.7358826154219</v>
+        <v>368.8619076035176</v>
       </c>
       <c r="E35" t="n">
-        <v>345.5134053358241</v>
+        <v>378.6394303239198</v>
       </c>
       <c r="F35" t="n">
-        <v>352.1366999334012</v>
+        <v>385.2627249214969</v>
       </c>
       <c r="G35" t="n">
-        <v>339.957593273648</v>
+        <v>373.0836182617437</v>
       </c>
       <c r="H35" t="n">
-        <v>243.1160044061111</v>
+        <v>276.2420293942068</v>
       </c>
       <c r="I35" t="n">
-        <v>20.80483706364946</v>
+        <v>53.93086205174519</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.24485646139203</v>
+        <v>102.3708814494878</v>
       </c>
       <c r="T35" t="n">
-        <v>155.3010112201617</v>
+        <v>188.4270362082574</v>
       </c>
       <c r="U35" t="n">
-        <v>189.8064788306369</v>
+        <v>222.9325038187326</v>
       </c>
       <c r="V35" t="n">
-        <v>281.655771124436</v>
+        <v>314.7817961125317</v>
       </c>
       <c r="W35" t="n">
-        <v>315.239289863735</v>
+        <v>348.3653148518307</v>
       </c>
       <c r="X35" t="n">
-        <v>331.9535558602889</v>
+        <v>365.0795808483846</v>
       </c>
       <c r="Y35" t="n">
-        <v>332.2438983289427</v>
+        <v>365.3699233170384</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>121.1393013376558</v>
+        <v>154.2653263257516</v>
       </c>
       <c r="C37" t="n">
-        <v>104.6990307214525</v>
+        <v>137.8250557095483</v>
       </c>
       <c r="D37" t="n">
-        <v>93.21629023787096</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>94.61829898791561</v>
+        <v>127.7443239760113</v>
       </c>
       <c r="F37" t="n">
-        <v>98.30140663806654</v>
+        <v>46.01208130367869</v>
       </c>
       <c r="G37" t="n">
-        <v>100.8944791712639</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.4279726501498</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>50.49917744426899</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.73658314890623</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>119.8444424464407</v>
+        <v>152.9704674345365</v>
       </c>
       <c r="T37" t="n">
-        <v>172.4698436406168</v>
+        <v>205.5958686287125</v>
       </c>
       <c r="U37" t="n">
-        <v>215.286757986889</v>
+        <v>248.4127829749847</v>
       </c>
       <c r="V37" t="n">
-        <v>206.4634796174252</v>
+        <v>239.5895046055209</v>
       </c>
       <c r="W37" t="n">
-        <v>211.5955598537662</v>
+        <v>244.721584841862</v>
       </c>
       <c r="X37" t="n">
-        <v>171.2770155264653</v>
+        <v>204.4030405145611</v>
       </c>
       <c r="Y37" t="n">
-        <v>157.8049336326748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>341.4355598753965</v>
+        <v>374.5615848634922</v>
       </c>
       <c r="C38" t="n">
-        <v>341.3399367874144</v>
+        <v>374.4659617755102</v>
       </c>
       <c r="D38" t="n">
-        <v>335.7358826154219</v>
+        <v>368.8619076035176</v>
       </c>
       <c r="E38" t="n">
-        <v>345.5134053358241</v>
+        <v>378.6394303239198</v>
       </c>
       <c r="F38" t="n">
-        <v>352.1366999334012</v>
+        <v>385.2627249214969</v>
       </c>
       <c r="G38" t="n">
-        <v>339.957593273648</v>
+        <v>373.0836182617437</v>
       </c>
       <c r="H38" t="n">
-        <v>243.1160044061111</v>
+        <v>276.2420293942068</v>
       </c>
       <c r="I38" t="n">
-        <v>20.80483706364946</v>
+        <v>53.93086205174517</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.24485646139223</v>
+        <v>102.3708814494877</v>
       </c>
       <c r="T38" t="n">
-        <v>155.3010112201617</v>
+        <v>188.4270362082574</v>
       </c>
       <c r="U38" t="n">
-        <v>189.8064788306369</v>
+        <v>222.9325038187326</v>
       </c>
       <c r="V38" t="n">
-        <v>281.655771124436</v>
+        <v>314.7817961125317</v>
       </c>
       <c r="W38" t="n">
-        <v>315.239289863735</v>
+        <v>348.3653148518307</v>
       </c>
       <c r="X38" t="n">
-        <v>331.9535558602889</v>
+        <v>365.0795808483846</v>
       </c>
       <c r="Y38" t="n">
-        <v>332.2438983289427</v>
+        <v>365.3699233170384</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>121.1393013376558</v>
+        <v>50.1587622936153</v>
       </c>
       <c r="C40" t="n">
-        <v>104.6990307214525</v>
+        <v>137.8250557095483</v>
       </c>
       <c r="D40" t="n">
-        <v>93.21629023787096</v>
+        <v>126.3423152259667</v>
       </c>
       <c r="E40" t="n">
-        <v>94.61829898791561</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>98.30140663806654</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>100.8944791712639</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.42797265014964</v>
+        <v>116.5539976382455</v>
       </c>
       <c r="I40" t="n">
-        <v>50.49917744426899</v>
+        <v>83.6252024323647</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.73658314890623</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>119.8444424464407</v>
+        <v>152.9704674345364</v>
       </c>
       <c r="T40" t="n">
-        <v>172.4698436406168</v>
+        <v>205.5958686287125</v>
       </c>
       <c r="U40" t="n">
-        <v>215.286757986889</v>
+        <v>248.4127829749847</v>
       </c>
       <c r="V40" t="n">
-        <v>206.4634796174252</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>211.5955598537662</v>
+        <v>244.721584841862</v>
       </c>
       <c r="X40" t="n">
-        <v>171.2770155264653</v>
+        <v>204.403040514561</v>
       </c>
       <c r="Y40" t="n">
-        <v>157.8049336326748</v>
+        <v>190.9309586207705</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>368.5981234669177</v>
+        <v>374.5615848634922</v>
       </c>
       <c r="C41" t="n">
-        <v>368.5025003789357</v>
+        <v>374.4659617755102</v>
       </c>
       <c r="D41" t="n">
-        <v>362.8984462069432</v>
+        <v>368.8619076035176</v>
       </c>
       <c r="E41" t="n">
-        <v>372.6759689273454</v>
+        <v>378.6394303239198</v>
       </c>
       <c r="F41" t="n">
-        <v>379.2992635249225</v>
+        <v>385.2627249214969</v>
       </c>
       <c r="G41" t="n">
-        <v>367.1201568651693</v>
+        <v>373.0836182617437</v>
       </c>
       <c r="H41" t="n">
-        <v>270.2785679976323</v>
+        <v>276.2420293942068</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>53.93086205174515</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>102.3708814494877</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>188.4270362082574</v>
       </c>
       <c r="U41" t="n">
-        <v>136.3689840691061</v>
+        <v>222.9325038187326</v>
       </c>
       <c r="V41" t="n">
-        <v>308.8183347159572</v>
+        <v>314.7817961125317</v>
       </c>
       <c r="W41" t="n">
-        <v>342.4018534552563</v>
+        <v>348.3653148518307</v>
       </c>
       <c r="X41" t="n">
-        <v>359.1161194518102</v>
+        <v>365.0795808483846</v>
       </c>
       <c r="Y41" t="n">
-        <v>359.4064619204639</v>
+        <v>365.3699233170384</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>103.0977843021435</v>
+        <v>154.2653263257515</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>67.78789423146615</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>121.7808625794369</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>128.0570427627852</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>110.5905362416711</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.8991467404275</v>
+        <v>52.86260813700193</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.9704674345364</v>
       </c>
       <c r="T43" t="n">
-        <v>199.6324072321381</v>
+        <v>205.5958686287125</v>
       </c>
       <c r="U43" t="n">
-        <v>242.4493215784102</v>
+        <v>248.4127829749847</v>
       </c>
       <c r="V43" t="n">
-        <v>233.6260432089464</v>
+        <v>239.5895046055209</v>
       </c>
       <c r="W43" t="n">
-        <v>238.7581234452875</v>
+        <v>244.721584841862</v>
       </c>
       <c r="X43" t="n">
-        <v>198.4395791179866</v>
+        <v>204.403040514561</v>
       </c>
       <c r="Y43" t="n">
-        <v>184.9674972241961</v>
+        <v>190.9309586207705</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>368.5981234669177</v>
+        <v>374.5615848634922</v>
       </c>
       <c r="C44" t="n">
-        <v>368.5025003789357</v>
+        <v>374.4659617755102</v>
       </c>
       <c r="D44" t="n">
-        <v>362.8984462069432</v>
+        <v>368.8619076035176</v>
       </c>
       <c r="E44" t="n">
-        <v>372.6759689273454</v>
+        <v>378.6394303239198</v>
       </c>
       <c r="F44" t="n">
-        <v>379.2992635249224</v>
+        <v>385.2627249214969</v>
       </c>
       <c r="G44" t="n">
-        <v>367.1201568651692</v>
+        <v>373.0836182617437</v>
       </c>
       <c r="H44" t="n">
-        <v>270.2785679976323</v>
+        <v>276.2420293942068</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>53.93086205174515</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>96.40742005291327</v>
+        <v>102.3708814494877</v>
       </c>
       <c r="T44" t="n">
-        <v>39.96156401619307</v>
+        <v>188.4270362082573</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>222.9325038187326</v>
       </c>
       <c r="V44" t="n">
-        <v>308.8183347159572</v>
+        <v>314.7817961125317</v>
       </c>
       <c r="W44" t="n">
-        <v>342.4018534552562</v>
+        <v>348.3653148518307</v>
       </c>
       <c r="X44" t="n">
-        <v>359.1161194518101</v>
+        <v>365.0795808483846</v>
       </c>
       <c r="Y44" t="n">
-        <v>359.4064619204639</v>
+        <v>365.3699233170384</v>
       </c>
     </row>
     <row r="45">
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>154.2653263257515</v>
       </c>
       <c r="C46" t="n">
-        <v>131.8615943129738</v>
+        <v>67.78789423146637</v>
       </c>
       <c r="D46" t="n">
-        <v>120.3788538293922</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>33.51617741034597</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>77.66174103579023</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>52.86260813700193</v>
       </c>
       <c r="S46" t="n">
-        <v>147.007006037962</v>
+        <v>152.9704674345364</v>
       </c>
       <c r="T46" t="n">
-        <v>199.632407232138</v>
+        <v>205.5958686287125</v>
       </c>
       <c r="U46" t="n">
-        <v>242.4493215784102</v>
+        <v>248.4127829749847</v>
       </c>
       <c r="V46" t="n">
-        <v>233.6260432089464</v>
+        <v>239.5895046055208</v>
       </c>
       <c r="W46" t="n">
-        <v>238.7581234452875</v>
+        <v>244.7215848418619</v>
       </c>
       <c r="X46" t="n">
-        <v>198.4395791179866</v>
+        <v>204.403040514561</v>
       </c>
       <c r="Y46" t="n">
-        <v>184.9674972241961</v>
+        <v>190.9309586207705</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.09965607931179</v>
+        <v>466.9578944634588</v>
       </c>
       <c r="C2" t="n">
-        <v>55.01546943298597</v>
+        <v>460.873707817133</v>
       </c>
       <c r="D2" t="n">
-        <v>45.62543608858395</v>
+        <v>460.4501819505976</v>
       </c>
       <c r="E2" t="n">
-        <v>35.32562464588472</v>
+        <v>450.1503705078983</v>
       </c>
       <c r="F2" t="n">
-        <v>18.33561663997633</v>
+        <v>433.1603625019899</v>
       </c>
       <c r="G2" t="n">
-        <v>1.345608634067944</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H2" t="n">
-        <v>1.345608634067944</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I2" t="n">
-        <v>1.345608634067944</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J2" t="n">
-        <v>17.32471116362478</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K2" t="n">
-        <v>17.32471116362478</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L2" t="n">
-        <v>17.32471116362478</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M2" t="n">
-        <v>17.32471116362478</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N2" t="n">
-        <v>33.97661801021559</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="O2" t="n">
-        <v>50.62852485680639</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="P2" t="n">
-        <v>50.62852485680639</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="Q2" t="n">
-        <v>50.62852485680639</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R2" t="n">
-        <v>67.2804317033972</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S2" t="n">
-        <v>67.2804317033972</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T2" t="n">
-        <v>67.2804317033972</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U2" t="n">
-        <v>67.2804317033972</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V2" t="n">
-        <v>67.2804317033972</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="W2" t="n">
-        <v>67.2804317033972</v>
+        <v>473.1386700875442</v>
       </c>
       <c r="X2" t="n">
-        <v>67.2804317033972</v>
+        <v>473.1386700875442</v>
       </c>
       <c r="Y2" t="n">
-        <v>67.2804317033972</v>
+        <v>473.1386700875442</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.2804317033972</v>
+        <v>589.5502482588797</v>
       </c>
       <c r="C3" t="n">
-        <v>67.2804317033972</v>
+        <v>455.5551770078255</v>
       </c>
       <c r="D3" t="n">
-        <v>67.2804317033972</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="E3" t="n">
-        <v>50.29042369748881</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F3" t="n">
-        <v>33.30041569158043</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G3" t="n">
-        <v>16.31040768567204</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H3" t="n">
-        <v>1.345608634067944</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I3" t="n">
-        <v>1.345608634067944</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J3" t="n">
-        <v>1.345608634067944</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K3" t="n">
-        <v>1.345608634067944</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L3" t="n">
-        <v>1.345608634067944</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="M3" t="n">
-        <v>17.99751548065875</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="N3" t="n">
-        <v>17.99751548065875</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="O3" t="n">
-        <v>34.64942232724955</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="P3" t="n">
-        <v>51.30132917384036</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q3" t="n">
-        <v>67.2804317033972</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R3" t="n">
-        <v>67.2804317033972</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S3" t="n">
-        <v>67.2804317033972</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T3" t="n">
-        <v>67.2804317033972</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U3" t="n">
-        <v>67.2804317033972</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V3" t="n">
-        <v>67.2804317033972</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W3" t="n">
-        <v>67.2804317033972</v>
+        <v>882.216907433437</v>
       </c>
       <c r="X3" t="n">
-        <v>67.2804317033972</v>
+        <v>705.8909255723297</v>
       </c>
       <c r="Y3" t="n">
-        <v>67.2804317033972</v>
+        <v>705.8909255723297</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.32562464588472</v>
+        <v>527.84753583939</v>
       </c>
       <c r="C4" t="n">
-        <v>35.32562464588472</v>
+        <v>356.7541634011066</v>
       </c>
       <c r="D4" t="n">
-        <v>35.32562464588472</v>
+        <v>356.7541634011066</v>
       </c>
       <c r="E4" t="n">
-        <v>18.33561663997633</v>
+        <v>195.8433482694261</v>
       </c>
       <c r="F4" t="n">
-        <v>1.345608634067944</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G4" t="n">
-        <v>1.345608634067944</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H4" t="n">
-        <v>1.345608634067944</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I4" t="n">
-        <v>1.345608634067944</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J4" t="n">
-        <v>1.345608634067944</v>
+        <v>45.29477178522802</v>
       </c>
       <c r="K4" t="n">
-        <v>1.345608634067944</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L4" t="n">
-        <v>1.345608634067944</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M4" t="n">
-        <v>17.99751548065875</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N4" t="n">
-        <v>34.64942232724955</v>
+        <v>1029.84703862227</v>
       </c>
       <c r="O4" t="n">
-        <v>51.30132917384036</v>
+        <v>1289.407648948744</v>
       </c>
       <c r="P4" t="n">
-        <v>67.2804317033972</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.2804317033972</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R4" t="n">
-        <v>50.29042369748881</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S4" t="n">
-        <v>50.29042369748881</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T4" t="n">
-        <v>35.32562464588472</v>
+        <v>1235.789661652969</v>
       </c>
       <c r="U4" t="n">
-        <v>35.32562464588472</v>
+        <v>994.6169067245601</v>
       </c>
       <c r="V4" t="n">
-        <v>35.32562464588472</v>
+        <v>994.6169067245601</v>
       </c>
       <c r="W4" t="n">
-        <v>35.32562464588472</v>
+        <v>715.5472422334344</v>
       </c>
       <c r="X4" t="n">
-        <v>35.32562464588472</v>
+        <v>715.5472422334344</v>
       </c>
       <c r="Y4" t="n">
-        <v>35.32562464588472</v>
+        <v>715.5472422334344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>402.7003299946285</v>
+        <v>1085.375117973735</v>
       </c>
       <c r="C5" t="n">
-        <v>396.6161433483027</v>
+        <v>1079.290931327409</v>
       </c>
       <c r="D5" t="n">
-        <v>396.1926174817673</v>
+        <v>674.82700142047</v>
       </c>
       <c r="E5" t="n">
-        <v>385.892806039068</v>
+        <v>374.2306702622874</v>
       </c>
       <c r="F5" t="n">
-        <v>368.9027980331596</v>
+        <v>357.240662256379</v>
       </c>
       <c r="G5" t="n">
-        <v>235.4276036233715</v>
+        <v>352.5527821896152</v>
       </c>
       <c r="H5" t="n">
-        <v>97.29209496840055</v>
+        <v>41.64428481733323</v>
       </c>
       <c r="I5" t="n">
-        <v>10.9403322854737</v>
+        <v>41.64428481733323</v>
       </c>
       <c r="J5" t="n">
-        <v>10.9403322854737</v>
+        <v>295.8297562850875</v>
       </c>
       <c r="K5" t="n">
-        <v>146.3269443182107</v>
+        <v>811.1777808995862</v>
       </c>
       <c r="L5" t="n">
-        <v>146.3269443182107</v>
+        <v>1326.525805514085</v>
       </c>
       <c r="M5" t="n">
-        <v>146.3269443182107</v>
+        <v>1841.873830128583</v>
       </c>
       <c r="N5" t="n">
-        <v>235.686744518646</v>
+        <v>1841.873830128583</v>
       </c>
       <c r="O5" t="n">
-        <v>235.686744518646</v>
+        <v>1841.873830128583</v>
       </c>
       <c r="P5" t="n">
-        <v>371.073356551383</v>
+        <v>2082.214240866661</v>
       </c>
       <c r="Q5" t="n">
-        <v>506.45996858412</v>
+        <v>2082.214240866661</v>
       </c>
       <c r="R5" t="n">
-        <v>547.0166142736848</v>
+        <v>2082.214240866661</v>
       </c>
       <c r="S5" t="n">
-        <v>547.0166142736848</v>
+        <v>2082.214240866661</v>
       </c>
       <c r="T5" t="n">
-        <v>547.0166142736848</v>
+        <v>2082.214240866661</v>
       </c>
       <c r="U5" t="n">
-        <v>547.0166142736848</v>
+        <v>1825.153749126172</v>
       </c>
       <c r="V5" t="n">
-        <v>408.8811056187139</v>
+        <v>1475.316194462652</v>
       </c>
       <c r="W5" t="n">
-        <v>408.8811056187139</v>
+        <v>1091.555893597821</v>
       </c>
       <c r="X5" t="n">
-        <v>408.8811056187139</v>
+        <v>1091.555893597821</v>
       </c>
       <c r="Y5" t="n">
-        <v>408.8811056187139</v>
+        <v>1091.555893597821</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132.610088308772</v>
+        <v>714.5558869026958</v>
       </c>
       <c r="C6" t="n">
-        <v>132.610088308772</v>
+        <v>580.5608156516414</v>
       </c>
       <c r="D6" t="n">
-        <v>131.4331482931457</v>
+        <v>463.6636578710338</v>
       </c>
       <c r="E6" t="n">
-        <v>10.9403322854737</v>
+        <v>343.1708418633618</v>
       </c>
       <c r="F6" t="n">
-        <v>10.9403322854737</v>
+        <v>234.2109620458664</v>
       </c>
       <c r="G6" t="n">
-        <v>10.9403322854737</v>
+        <v>127.2208493602051</v>
       </c>
       <c r="H6" t="n">
-        <v>10.9403322854737</v>
+        <v>56.47363639592116</v>
       </c>
       <c r="I6" t="n">
-        <v>10.9403322854737</v>
+        <v>41.64428481733323</v>
       </c>
       <c r="J6" t="n">
-        <v>146.3269443182107</v>
+        <v>41.64428481733323</v>
       </c>
       <c r="K6" t="n">
-        <v>146.3269443182107</v>
+        <v>186.3257023391818</v>
       </c>
       <c r="L6" t="n">
-        <v>281.7135563509477</v>
+        <v>701.6737269536806</v>
       </c>
       <c r="M6" t="n">
-        <v>281.7135563509477</v>
+        <v>701.6737269536806</v>
       </c>
       <c r="N6" t="n">
-        <v>281.7135563509477</v>
+        <v>1217.021751568179</v>
       </c>
       <c r="O6" t="n">
-        <v>417.1001683836847</v>
+        <v>1732.369776182678</v>
       </c>
       <c r="P6" t="n">
-        <v>417.1001683836847</v>
+        <v>1732.369776182678</v>
       </c>
       <c r="Q6" t="n">
-        <v>547.0166142736848</v>
+        <v>2082.214240866661</v>
       </c>
       <c r="R6" t="n">
-        <v>547.0166142736848</v>
+        <v>2082.214240866661</v>
       </c>
       <c r="S6" t="n">
-        <v>547.0166142736848</v>
+        <v>1974.22423098097</v>
       </c>
       <c r="T6" t="n">
-        <v>408.8811056187139</v>
+        <v>1814.882367167978</v>
       </c>
       <c r="U6" t="n">
-        <v>408.8811056187139</v>
+        <v>1617.531556306197</v>
       </c>
       <c r="V6" t="n">
-        <v>270.745596963743</v>
+        <v>1403.820029299231</v>
       </c>
       <c r="W6" t="n">
-        <v>132.610088308772</v>
+        <v>1190.58686103556</v>
       </c>
       <c r="X6" t="n">
-        <v>132.610088308772</v>
+        <v>1014.260879174452</v>
       </c>
       <c r="Y6" t="n">
-        <v>132.610088308772</v>
+        <v>854.8589195382824</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>270.745596963743</v>
+        <v>201.1389294944232</v>
       </c>
       <c r="C7" t="n">
-        <v>270.745596963743</v>
+        <v>201.1389294944232</v>
       </c>
       <c r="D7" t="n">
-        <v>270.745596963743</v>
+        <v>41.64428481733323</v>
       </c>
       <c r="E7" t="n">
-        <v>270.745596963743</v>
+        <v>41.64428481733323</v>
       </c>
       <c r="F7" t="n">
-        <v>132.610088308772</v>
+        <v>41.64428481733323</v>
       </c>
       <c r="G7" t="n">
-        <v>132.610088308772</v>
+        <v>41.64428481733323</v>
       </c>
       <c r="H7" t="n">
-        <v>127.2863781811476</v>
+        <v>41.64428481733323</v>
       </c>
       <c r="I7" t="n">
-        <v>10.9403322854737</v>
+        <v>41.64428481733323</v>
       </c>
       <c r="J7" t="n">
-        <v>10.9403322854737</v>
+        <v>55.72683422254375</v>
       </c>
       <c r="K7" t="n">
-        <v>10.9403322854737</v>
+        <v>210.2791619447817</v>
       </c>
       <c r="L7" t="n">
-        <v>10.9403322854737</v>
+        <v>470.1762622248423</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3269443182107</v>
+        <v>759.4403186653356</v>
       </c>
       <c r="N7" t="n">
-        <v>210.7153604057</v>
+        <v>1040.279101059586</v>
       </c>
       <c r="O7" t="n">
-        <v>346.101972438437</v>
+        <v>1299.83971138606</v>
       </c>
       <c r="P7" t="n">
-        <v>481.488584471174</v>
+        <v>1505.515151635673</v>
       </c>
       <c r="Q7" t="n">
-        <v>547.0166142736848</v>
+        <v>1571.043181438183</v>
       </c>
       <c r="R7" t="n">
-        <v>547.0166142736848</v>
+        <v>1485.770463113583</v>
       </c>
       <c r="S7" t="n">
-        <v>408.8811056187139</v>
+        <v>1465.635041214274</v>
       </c>
       <c r="T7" t="n">
-        <v>408.8811056187139</v>
+        <v>1226.086302190977</v>
       </c>
       <c r="U7" t="n">
-        <v>408.8811056187139</v>
+        <v>943.2881547371007</v>
       </c>
       <c r="V7" t="n">
-        <v>408.8811056187139</v>
+        <v>943.2881547371007</v>
       </c>
       <c r="W7" t="n">
-        <v>408.8811056187139</v>
+        <v>664.2184902459751</v>
       </c>
       <c r="X7" t="n">
-        <v>270.745596963743</v>
+        <v>425.8746281056585</v>
       </c>
       <c r="Y7" t="n">
-        <v>270.745596963743</v>
+        <v>201.1389294944232</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1170.670042511951</v>
+        <v>938.9577111941985</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.585855865625</v>
+        <v>528.8331205074686</v>
       </c>
       <c r="D8" t="n">
-        <v>824.0875362856032</v>
+        <v>528.4095946409332</v>
       </c>
       <c r="E8" t="n">
-        <v>429.9938193661921</v>
+        <v>518.1097831982339</v>
       </c>
       <c r="F8" t="n">
-        <v>35.9001024467811</v>
+        <v>501.1197751923255</v>
       </c>
       <c r="G8" t="n">
-        <v>31.21222238001735</v>
+        <v>92.39149108515767</v>
       </c>
       <c r="H8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>417.4634743327321</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L8" t="n">
-        <v>466.9476083001462</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M8" t="n">
-        <v>466.9476083001462</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N8" t="n">
-        <v>466.9476083001462</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
-        <v>853.1988602528609</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P8" t="n">
-        <v>1239.450112205576</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1560.611119000868</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V8" t="n">
-        <v>1560.611119000868</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W8" t="n">
-        <v>1176.850818136036</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="X8" t="n">
-        <v>1176.850818136036</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="Y8" t="n">
-        <v>1176.850818136036</v>
+        <v>945.1384868182839</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>460.284638735585</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>326.2895674845307</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>209.3924097039231</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>88.89959369625106</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>31.21222238001735</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>31.21222238001735</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>31.21222238001735</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>31.21222238001735</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>31.21222238001735</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>372.2978437800934</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N9" t="n">
-        <v>758.5490957328082</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O9" t="n">
-        <v>1144.800347685523</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P9" t="n">
-        <v>1531.051599638238</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q9" t="n">
-        <v>1531.051599638238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S9" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T9" t="n">
-        <v>1560.611119000868</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1363.260308139086</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1149.54878113212</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>936.3156128684487</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
-        <v>759.9896310073416</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>600.5876713711716</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.21222238001735</v>
+        <v>362.1705454383725</v>
       </c>
       <c r="C10" t="n">
-        <v>31.21222238001735</v>
+        <v>362.1705454383725</v>
       </c>
       <c r="D10" t="n">
-        <v>31.21222238001735</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E10" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M10" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N10" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O10" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P10" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q10" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1374.219350880778</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1134.67061185748</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U10" t="n">
-        <v>851.872464403604</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V10" t="n">
-        <v>577.986719343126</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W10" t="n">
-        <v>298.9170548520003</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="X10" t="n">
-        <v>60.5731927116837</v>
+        <v>549.8702518324169</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.21222238001735</v>
+        <v>549.8702518324169</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2080.954409242188</v>
+        <v>2080.954409242187</v>
       </c>
       <c r="C11" t="n">
-        <v>1736.166594305406</v>
+        <v>1736.166594305405</v>
       </c>
       <c r="D11" t="n">
-        <v>1397.039440148414</v>
+        <v>1397.039440148413</v>
       </c>
       <c r="E11" t="n">
         <v>1048.036000415257</v>
       </c>
       <c r="F11" t="n">
-        <v>692.3423641188925</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G11" t="n">
         <v>348.9508557616723</v>
@@ -5039,52 +5039,52 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J11" t="n">
-        <v>165.1692974300282</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K11" t="n">
-        <v>703.3287985390677</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L11" t="n">
-        <v>1415.920198351306</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M11" t="n">
-        <v>2192.23878934306</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N11" t="n">
-        <v>2945.419805981678</v>
+        <v>2583.702153496821</v>
       </c>
       <c r="O11" t="n">
-        <v>3589.050662398783</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P11" t="n">
-        <v>4118.207360317934</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q11" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R11" t="n">
         <v>4118.207360317934</v>
       </c>
       <c r="S11" t="n">
-        <v>4048.263060861983</v>
+        <v>4048.263060861982</v>
       </c>
       <c r="T11" t="n">
-        <v>3891.39335255879</v>
+        <v>3891.393352558789</v>
       </c>
       <c r="U11" t="n">
-        <v>3699.669636568247</v>
+        <v>3699.669636568246</v>
       </c>
       <c r="V11" t="n">
-        <v>3415.168857654676</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W11" t="n">
-        <v>3096.745332539792</v>
+        <v>3096.745332539791</v>
       </c>
       <c r="X11" t="n">
-        <v>2761.438710458692</v>
+        <v>2761.438710458691</v>
       </c>
       <c r="Y11" t="n">
-        <v>2425.83881315673</v>
+        <v>2425.838813156729</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J12" t="n">
-        <v>82.36414720635868</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K12" t="n">
-        <v>82.36414720635868</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="L12" t="n">
-        <v>743.4523191256469</v>
+        <v>936.2651766882802</v>
       </c>
       <c r="M12" t="n">
-        <v>1586.429399820214</v>
+        <v>1075.051787826981</v>
       </c>
       <c r="N12" t="n">
-        <v>1586.429399820214</v>
+        <v>1075.051787826981</v>
       </c>
       <c r="O12" t="n">
-        <v>2128.853343056859</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="P12" t="n">
-        <v>2128.853343056859</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="Q12" t="n">
         <v>2128.853343056859</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>714.3405672578622</v>
+        <v>714.3405672578621</v>
       </c>
       <c r="C13" t="n">
-        <v>608.5839705695263</v>
+        <v>608.5839705695262</v>
       </c>
       <c r="D13" t="n">
-        <v>514.4261016423839</v>
+        <v>514.4261016423837</v>
       </c>
       <c r="E13" t="n">
-        <v>418.8520622606509</v>
+        <v>418.8520622606508</v>
       </c>
       <c r="F13" t="n">
-        <v>319.5577121211895</v>
+        <v>319.5577121211897</v>
       </c>
       <c r="G13" t="n">
-        <v>217.6440967966805</v>
+        <v>217.6440967966807</v>
       </c>
       <c r="H13" t="n">
         <v>133.3734173520849</v>
@@ -5200,10 +5200,10 @@
         <v>160.4832705240928</v>
       </c>
       <c r="K13" t="n">
-        <v>379.0721721588545</v>
+        <v>379.0721721588544</v>
       </c>
       <c r="L13" t="n">
-        <v>703.0058463514388</v>
+        <v>703.0058463514387</v>
       </c>
       <c r="M13" t="n">
         <v>1056.306476704456</v>
@@ -5221,7 +5221,7 @@
         <v>2124.055635127398</v>
       </c>
       <c r="R13" t="n">
-        <v>2104.119692552745</v>
+        <v>2104.119692552746</v>
       </c>
       <c r="S13" t="n">
         <v>1983.064700182603</v>
@@ -5264,10 +5264,10 @@
         <v>1048.036000415257</v>
       </c>
       <c r="F14" t="n">
-        <v>692.3423641188923</v>
+        <v>692.3423641188925</v>
       </c>
       <c r="G14" t="n">
-        <v>348.9508557616721</v>
+        <v>348.9508557616723</v>
       </c>
       <c r="H14" t="n">
         <v>103.3791341393379</v>
@@ -5288,13 +5288,13 @@
         <v>2363.619110587144</v>
       </c>
       <c r="N14" t="n">
-        <v>2904.863160292113</v>
+        <v>3116.800127225762</v>
       </c>
       <c r="O14" t="n">
-        <v>3548.494016709218</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P14" t="n">
-        <v>4077.650714628369</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q14" t="n">
         <v>4077.650714628369</v>
@@ -5318,7 +5318,7 @@
         <v>3096.745332539791</v>
       </c>
       <c r="X14" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y14" t="n">
         <v>2425.838813156729</v>
@@ -5358,25 +5358,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="K15" t="n">
-        <v>538.1704034716574</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="L15" t="n">
-        <v>538.1704034716574</v>
+        <v>743.4523191256469</v>
       </c>
       <c r="M15" t="n">
-        <v>538.1704034716574</v>
+        <v>743.4523191256469</v>
       </c>
       <c r="N15" t="n">
-        <v>538.1704034716574</v>
+        <v>1617.110411237265</v>
       </c>
       <c r="O15" t="n">
-        <v>1187.743466521715</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="P15" t="n">
-        <v>1749.449359010245</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="Q15" t="n">
-        <v>2099.293823694229</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="R15" t="n">
         <v>2128.853343056859</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>714.3405672578622</v>
+        <v>714.3405672578624</v>
       </c>
       <c r="C16" t="n">
-        <v>608.5839705695263</v>
+        <v>608.5839705695265</v>
       </c>
       <c r="D16" t="n">
-        <v>514.426101642384</v>
+        <v>514.4261016423842</v>
       </c>
       <c r="E16" t="n">
-        <v>418.852062260651</v>
+        <v>418.8520622606512</v>
       </c>
       <c r="F16" t="n">
-        <v>319.5577121211898</v>
+        <v>319.55771212119</v>
       </c>
       <c r="G16" t="n">
-        <v>217.6440967966807</v>
+        <v>217.644096796681</v>
       </c>
       <c r="H16" t="n">
-        <v>133.3734173520849</v>
+        <v>133.3734173520852</v>
       </c>
       <c r="I16" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J16" t="n">
-        <v>160.4832705240928</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K16" t="n">
-        <v>379.0721721588544</v>
+        <v>379.0721721588545</v>
       </c>
       <c r="L16" t="n">
-        <v>703.0058463514385</v>
+        <v>703.0058463514388</v>
       </c>
       <c r="M16" t="n">
-        <v>1056.306476704455</v>
+        <v>1056.306476704456</v>
       </c>
       <c r="N16" t="n">
-        <v>1401.181833011229</v>
+        <v>1401.18183301123</v>
       </c>
       <c r="O16" t="n">
         <v>1724.779017250227</v>
@@ -5476,10 +5476,10 @@
         <v>1169.109507153616</v>
       </c>
       <c r="X16" t="n">
-        <v>996.1024207632465</v>
+        <v>996.1024207632468</v>
       </c>
       <c r="Y16" t="n">
-        <v>836.7034979019588</v>
+        <v>836.7034979019591</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2080.954409242188</v>
+        <v>2080.954409242187</v>
       </c>
       <c r="C17" t="n">
-        <v>1736.166594305406</v>
+        <v>1736.166594305405</v>
       </c>
       <c r="D17" t="n">
-        <v>1397.039440148414</v>
+        <v>1397.039440148413</v>
       </c>
       <c r="E17" t="n">
-        <v>1048.036000415258</v>
+        <v>1048.036000415257</v>
       </c>
       <c r="F17" t="n">
-        <v>692.342364118893</v>
+        <v>692.3423641188925</v>
       </c>
       <c r="G17" t="n">
-        <v>348.9508557616728</v>
+        <v>348.9508557616723</v>
       </c>
       <c r="H17" t="n">
         <v>103.3791341393379</v>
@@ -5519,13 +5519,13 @@
         <v>874.7091197831526</v>
       </c>
       <c r="L17" t="n">
-        <v>1587.300519595391</v>
+        <v>1054.202545866449</v>
       </c>
       <c r="M17" t="n">
-        <v>2363.619110587144</v>
+        <v>1830.521136858203</v>
       </c>
       <c r="N17" t="n">
-        <v>3116.800127225762</v>
+        <v>2583.702153496821</v>
       </c>
       <c r="O17" t="n">
         <v>3227.333009913926</v>
@@ -5543,22 +5543,22 @@
         <v>4048.263060861982</v>
       </c>
       <c r="T17" t="n">
-        <v>3891.39335255879</v>
+        <v>3891.393352558789</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.669636568247</v>
+        <v>3699.669636568246</v>
       </c>
       <c r="V17" t="n">
-        <v>3415.168857654676</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W17" t="n">
-        <v>3096.745332539792</v>
+        <v>3096.745332539791</v>
       </c>
       <c r="X17" t="n">
-        <v>2761.438710458692</v>
+        <v>2761.438710458691</v>
       </c>
       <c r="Y17" t="n">
-        <v>2425.83881315673</v>
+        <v>2425.838813156729</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J18" t="n">
-        <v>82.36414720635868</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K18" t="n">
-        <v>82.36414720635868</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="L18" t="n">
-        <v>82.36414720635868</v>
+        <v>1392.071432953579</v>
       </c>
       <c r="M18" t="n">
-        <v>925.3412279009253</v>
+        <v>1392.071432953579</v>
       </c>
       <c r="N18" t="n">
-        <v>1798.999320012543</v>
+        <v>1392.071432953579</v>
       </c>
       <c r="O18" t="n">
-        <v>2128.853343056859</v>
+        <v>1392.071432953579</v>
       </c>
       <c r="P18" t="n">
-        <v>2128.853343056859</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="Q18" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R18" t="n">
         <v>2128.853343056859</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>714.3405672578622</v>
+        <v>714.3405672578616</v>
       </c>
       <c r="C19" t="n">
-        <v>608.5839705695262</v>
+        <v>608.5839705695257</v>
       </c>
       <c r="D19" t="n">
-        <v>514.4261016423837</v>
+        <v>514.4261016423833</v>
       </c>
       <c r="E19" t="n">
-        <v>418.8520622606508</v>
+        <v>418.8520622606503</v>
       </c>
       <c r="F19" t="n">
-        <v>319.5577121211896</v>
+        <v>319.5577121211892</v>
       </c>
       <c r="G19" t="n">
         <v>217.6440967966807</v>
       </c>
       <c r="H19" t="n">
-        <v>133.373417352085</v>
+        <v>133.3734173520849</v>
       </c>
       <c r="I19" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J19" t="n">
-        <v>160.4832705240928</v>
+        <v>160.4832705240927</v>
       </c>
       <c r="K19" t="n">
         <v>379.0721721588544</v>
@@ -5701,22 +5701,22 @@
         <v>1983.064700182603</v>
       </c>
       <c r="T19" t="n">
-        <v>1808.852736909253</v>
+        <v>1808.852736909252</v>
       </c>
       <c r="U19" t="n">
         <v>1591.391365205324</v>
       </c>
       <c r="V19" t="n">
-        <v>1382.842395894794</v>
+        <v>1382.842395894793</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.109507153616</v>
+        <v>1169.109507153615</v>
       </c>
       <c r="X19" t="n">
-        <v>996.1024207632466</v>
+        <v>996.1024207632461</v>
       </c>
       <c r="Y19" t="n">
-        <v>836.7034979019589</v>
+        <v>836.7034979019584</v>
       </c>
     </row>
     <row r="20">
@@ -5735,13 +5735,13 @@
         <v>1397.039440148413</v>
       </c>
       <c r="E20" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F20" t="n">
-        <v>692.3423641188925</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G20" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616724</v>
       </c>
       <c r="H20" t="n">
         <v>103.3791341393379</v>
@@ -5750,28 +5750,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J20" t="n">
-        <v>165.1692974300282</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K20" t="n">
-        <v>703.3287985390677</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L20" t="n">
-        <v>1415.920198351306</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M20" t="n">
-        <v>2192.23878934306</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N20" t="n">
-        <v>2945.419805981678</v>
+        <v>3116.800127225762</v>
       </c>
       <c r="O20" t="n">
-        <v>3589.050662398783</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P20" t="n">
-        <v>4118.207360317934</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q20" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R20" t="n">
         <v>4118.207360317934</v>
@@ -5783,7 +5783,7 @@
         <v>3891.393352558789</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.669636568246</v>
+        <v>3699.669636568247</v>
       </c>
       <c r="V20" t="n">
         <v>3415.168857654675</v>
@@ -5792,7 +5792,7 @@
         <v>3096.745332539791</v>
       </c>
       <c r="X20" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y20" t="n">
         <v>2425.838813156729</v>
@@ -5829,25 +5829,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J21" t="n">
-        <v>275.1770047689919</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K21" t="n">
-        <v>730.9832610342906</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="L21" t="n">
-        <v>730.9832610342906</v>
+        <v>743.4523191256469</v>
       </c>
       <c r="M21" t="n">
-        <v>730.9832610342906</v>
+        <v>1395.336733148334</v>
       </c>
       <c r="N21" t="n">
-        <v>730.9832610342906</v>
+        <v>1395.336733148334</v>
       </c>
       <c r="O21" t="n">
-        <v>1187.743466521715</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="P21" t="n">
-        <v>1749.449359010245</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="Q21" t="n">
         <v>2099.293823694229</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.3405672578617</v>
+        <v>714.3405672578623</v>
       </c>
       <c r="C22" t="n">
-        <v>608.5839705695259</v>
+        <v>608.5839705695264</v>
       </c>
       <c r="D22" t="n">
-        <v>514.4261016423836</v>
+        <v>514.426101642384</v>
       </c>
       <c r="E22" t="n">
-        <v>418.8520622606507</v>
+        <v>418.852062260651</v>
       </c>
       <c r="F22" t="n">
-        <v>319.5577121211895</v>
+        <v>319.5577121211899</v>
       </c>
       <c r="G22" t="n">
-        <v>217.6440967966807</v>
+        <v>217.6440967966809</v>
       </c>
       <c r="H22" t="n">
-        <v>133.3734173520849</v>
+        <v>133.3734173520851</v>
       </c>
       <c r="I22" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J22" t="n">
-        <v>160.4832705240927</v>
+        <v>160.4832705240928</v>
       </c>
       <c r="K22" t="n">
         <v>379.0721721588544</v>
       </c>
       <c r="L22" t="n">
-        <v>703.0058463514385</v>
+        <v>703.0058463514387</v>
       </c>
       <c r="M22" t="n">
-        <v>1056.306476704455</v>
+        <v>1056.306476704456</v>
       </c>
       <c r="N22" t="n">
-        <v>1401.181833011229</v>
+        <v>1401.18183301123</v>
       </c>
       <c r="O22" t="n">
         <v>1724.779017250227</v>
@@ -5935,25 +5935,25 @@
         <v>2104.119692552745</v>
       </c>
       <c r="S22" t="n">
-        <v>1983.064700182602</v>
+        <v>1983.064700182603</v>
       </c>
       <c r="T22" t="n">
-        <v>1808.852736909252</v>
+        <v>1808.852736909253</v>
       </c>
       <c r="U22" t="n">
         <v>1591.391365205324</v>
       </c>
       <c r="V22" t="n">
-        <v>1382.842395894793</v>
+        <v>1382.842395894794</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.109507153615</v>
+        <v>1169.109507153616</v>
       </c>
       <c r="X22" t="n">
-        <v>996.1024207632464</v>
+        <v>996.1024207632468</v>
       </c>
       <c r="Y22" t="n">
-        <v>836.7034979019587</v>
+        <v>836.7034979019591</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J23" t="n">
-        <v>336.549618674113</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K23" t="n">
-        <v>874.7091197831526</v>
+        <v>620.5236483153982</v>
       </c>
       <c r="L23" t="n">
-        <v>1587.300519595391</v>
+        <v>1094.759191556014</v>
       </c>
       <c r="M23" t="n">
-        <v>2363.619110587144</v>
+        <v>1871.077782547768</v>
       </c>
       <c r="N23" t="n">
-        <v>3116.800127225762</v>
+        <v>2624.258799186386</v>
       </c>
       <c r="O23" t="n">
         <v>3267.889655603491</v>
@@ -6023,16 +6023,16 @@
         <v>3699.669636568247</v>
       </c>
       <c r="V23" t="n">
-        <v>3415.168857654675</v>
+        <v>3415.168857654676</v>
       </c>
       <c r="W23" t="n">
-        <v>3096.745332539791</v>
+        <v>3096.745332539792</v>
       </c>
       <c r="X23" t="n">
         <v>2761.438710458692</v>
       </c>
       <c r="Y23" t="n">
-        <v>2425.838813156729</v>
+        <v>2425.83881315673</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J24" t="n">
-        <v>275.1770047689919</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K24" t="n">
-        <v>730.9832610342906</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="L24" t="n">
-        <v>1187.743466521715</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="M24" t="n">
-        <v>1187.743466521715</v>
+        <v>925.3412279009253</v>
       </c>
       <c r="N24" t="n">
-        <v>1187.743466521715</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="O24" t="n">
-        <v>1187.743466521715</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="P24" t="n">
-        <v>1749.449359010245</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="Q24" t="n">
-        <v>2099.293823694229</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="R24" t="n">
         <v>2128.853343056859</v>
@@ -6133,16 +6133,16 @@
         <v>418.8520622606509</v>
       </c>
       <c r="F25" t="n">
-        <v>319.5577121211897</v>
+        <v>319.5577121211895</v>
       </c>
       <c r="G25" t="n">
-        <v>217.6440967966807</v>
+        <v>217.6440967966805</v>
       </c>
       <c r="H25" t="n">
-        <v>133.3734173520849</v>
+        <v>133.373417352085</v>
       </c>
       <c r="I25" t="n">
-        <v>82.36414720635868</v>
+        <v>82.36414720635869</v>
       </c>
       <c r="J25" t="n">
         <v>160.4832705240929</v>
@@ -6151,7 +6151,7 @@
         <v>379.0721721588545</v>
       </c>
       <c r="L25" t="n">
-        <v>703.0058463514387</v>
+        <v>703.0058463514388</v>
       </c>
       <c r="M25" t="n">
         <v>1056.306476704456</v>
@@ -6163,7 +6163,7 @@
         <v>1724.779017250227</v>
       </c>
       <c r="P25" t="n">
-        <v>1994.491031412364</v>
+        <v>1994.491031412363</v>
       </c>
       <c r="Q25" t="n">
         <v>2124.055635127398</v>
@@ -6187,10 +6187,10 @@
         <v>1169.109507153616</v>
       </c>
       <c r="X25" t="n">
-        <v>996.1024207632466</v>
+        <v>996.1024207632465</v>
       </c>
       <c r="Y25" t="n">
-        <v>836.7034979019589</v>
+        <v>836.7034979019588</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1201.075010560572</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489446</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6260,7 +6260,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W26" t="n">
         <v>3463.023532176683</v>
@@ -6303,28 +6303,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>1402.950983437843</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M27" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>126.7003606771694</v>
+        <v>321.0892943552104</v>
       </c>
       <c r="C28" t="n">
-        <v>126.7003606771694</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="D28" t="n">
-        <v>126.7003606771694</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6397,7 +6397,7 @@
         <v>1237.898275478248</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P28" t="n">
         <v>1761.542230672484</v>
@@ -6409,25 +6409,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T28" t="n">
-        <v>1434.451719820136</v>
+        <v>1628.840653498177</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.450483200945</v>
+        <v>1375.839416878986</v>
       </c>
       <c r="V28" t="n">
-        <v>937.3616489751521</v>
+        <v>1131.750582653193</v>
       </c>
       <c r="W28" t="n">
-        <v>688.0888953187113</v>
+        <v>882.4778289967519</v>
       </c>
       <c r="X28" t="n">
-        <v>479.5419440130794</v>
+        <v>673.9308776911204</v>
       </c>
       <c r="Y28" t="n">
-        <v>284.6031562365288</v>
+        <v>478.99208991457</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489446</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764616</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H29" t="n">
         <v>149.7985495388648</v>
@@ -6491,13 +6491,13 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
         <v>4137.027566035664</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W29" t="n">
         <v>3463.023532176683</v>
@@ -6540,28 +6540,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>947.1447271725442</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>947.1447271725442</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N30" t="n">
-        <v>947.1447271725442</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O30" t="n">
-        <v>1651.101817718438</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>340.0789637264446</v>
+        <v>632.8052776733939</v>
       </c>
       <c r="C31" t="n">
-        <v>198.7825021228459</v>
+        <v>491.5088160697953</v>
       </c>
       <c r="D31" t="n">
-        <v>198.7825021228459</v>
+        <v>361.8110822273902</v>
       </c>
       <c r="E31" t="n">
-        <v>198.7825021228459</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="F31" t="n">
-        <v>198.7825021228459</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G31" t="n">
         <v>93.2436976906228</v>
@@ -6619,19 +6619,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L31" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O31" t="n">
         <v>1526.662838113797</v>
@@ -6643,28 +6643,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T31" t="n">
-        <v>1489.927527310052</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="U31" t="n">
-        <v>1236.926290690861</v>
+        <v>1391.202311389558</v>
       </c>
       <c r="V31" t="n">
-        <v>992.8374564650677</v>
+        <v>1248.527778194826</v>
       </c>
       <c r="W31" t="n">
-        <v>743.5647028086269</v>
+        <v>999.2550245383853</v>
       </c>
       <c r="X31" t="n">
-        <v>535.0177515029951</v>
+        <v>790.7080732327535</v>
       </c>
       <c r="Y31" t="n">
-        <v>340.0789637264446</v>
+        <v>790.7080732327535</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2080.954409242187</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C32" t="n">
-        <v>1736.166594305405</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D32" t="n">
-        <v>1397.039440148414</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E32" t="n">
-        <v>1048.036000415258</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F32" t="n">
-        <v>692.3423641188931</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G32" t="n">
-        <v>348.9508557616728</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H32" t="n">
-        <v>103.3791341393379</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I32" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>82.36414720635868</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K32" t="n">
-        <v>382.1677917437758</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L32" t="n">
-        <v>1094.759191556014</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M32" t="n">
-        <v>1871.077782547768</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N32" t="n">
-        <v>2624.258799186386</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3267.889655603491</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P32" t="n">
-        <v>3797.046353522642</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4118.207360317934</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R32" t="n">
-        <v>4118.207360317934</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4048.263060861982</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
-        <v>3891.393352558789</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U32" t="n">
-        <v>3699.669636568247</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V32" t="n">
-        <v>3415.168857654675</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W32" t="n">
-        <v>3096.745332539791</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X32" t="n">
-        <v>2761.438710458692</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y32" t="n">
-        <v>2425.838813156729</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>761.1949890928931</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>627.1999178418388</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>510.3027600612312</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>389.8099440535592</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>280.8500642360638</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>173.8599515504025</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>103.1127385861185</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>82.36414720635868</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>743.4523191256469</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M33" t="n">
-        <v>1255.195250945241</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N33" t="n">
-        <v>2128.853343056859</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O33" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>1861.521469358176</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>1664.170658496394</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>1450.459131489428</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>1237.225963225757</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>901.4980217284798</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>714.3405672578624</v>
+        <v>365.6540635912172</v>
       </c>
       <c r="C34" t="n">
-        <v>608.5839705695265</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="D34" t="n">
-        <v>514.4261016423842</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="E34" t="n">
-        <v>418.8520622606512</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>319.55771212119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>217.644096796681</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>133.3734173520852</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>160.4832705240929</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K34" t="n">
-        <v>379.0721721588545</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L34" t="n">
-        <v>703.0058463514388</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M34" t="n">
-        <v>1056.306476704456</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N34" t="n">
-        <v>1401.18183301123</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O34" t="n">
-        <v>1724.779017250227</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P34" t="n">
-        <v>1994.491031412363</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q34" t="n">
-        <v>2124.055635127398</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>2104.119692552745</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1983.064700182603</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T34" t="n">
-        <v>1808.852736909253</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U34" t="n">
-        <v>1591.391365205324</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V34" t="n">
-        <v>1382.842395894794</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W34" t="n">
-        <v>1169.109507153616</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X34" t="n">
-        <v>996.1024207632468</v>
+        <v>535.0177515029949</v>
       </c>
       <c r="Y34" t="n">
-        <v>836.7034979019591</v>
+        <v>523.5568591505767</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2080.954409242188</v>
+        <v>2325.421878748232</v>
       </c>
       <c r="C35" t="n">
-        <v>1736.166594305406</v>
+        <v>1947.173432510343</v>
       </c>
       <c r="D35" t="n">
-        <v>1397.039440148414</v>
+        <v>1574.585647052245</v>
       </c>
       <c r="E35" t="n">
-        <v>1048.036000415258</v>
+        <v>1192.121576017982</v>
       </c>
       <c r="F35" t="n">
-        <v>692.342364118893</v>
+        <v>802.9673084205107</v>
       </c>
       <c r="G35" t="n">
-        <v>348.9508557616728</v>
+        <v>426.1151687621837</v>
       </c>
       <c r="H35" t="n">
-        <v>103.3791341393379</v>
+        <v>147.0828158387428</v>
       </c>
       <c r="I35" t="n">
-        <v>82.36414720635868</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="J35" t="n">
-        <v>82.36414720635868</v>
+        <v>346.792669072411</v>
       </c>
       <c r="K35" t="n">
-        <v>382.1677917437758</v>
+        <v>884.9521701814506</v>
       </c>
       <c r="L35" t="n">
-        <v>1094.759191556014</v>
+        <v>1597.543569993689</v>
       </c>
       <c r="M35" t="n">
-        <v>1871.077782547768</v>
+        <v>2373.862160985443</v>
       </c>
       <c r="N35" t="n">
-        <v>2624.258799186386</v>
+        <v>3127.043177624061</v>
       </c>
       <c r="O35" t="n">
-        <v>3267.889655603491</v>
+        <v>3770.674034041166</v>
       </c>
       <c r="P35" t="n">
-        <v>3797.046353522642</v>
+        <v>4299.830731960317</v>
       </c>
       <c r="Q35" t="n">
-        <v>4118.207360317934</v>
+        <v>4620.991738755609</v>
       </c>
       <c r="R35" t="n">
-        <v>4118.207360317934</v>
+        <v>4630.359880232834</v>
       </c>
       <c r="S35" t="n">
-        <v>4048.263060861982</v>
+        <v>4526.954949475776</v>
       </c>
       <c r="T35" t="n">
-        <v>3891.393352558789</v>
+        <v>4336.624609871476</v>
       </c>
       <c r="U35" t="n">
-        <v>3699.669636568246</v>
+        <v>4111.440262579827</v>
       </c>
       <c r="V35" t="n">
-        <v>3415.168857654676</v>
+        <v>3793.478852365148</v>
       </c>
       <c r="W35" t="n">
-        <v>3096.745332539792</v>
+        <v>3441.594695949157</v>
       </c>
       <c r="X35" t="n">
-        <v>2761.438710458692</v>
+        <v>3072.82744256695</v>
       </c>
       <c r="Y35" t="n">
-        <v>2425.83881315673</v>
+        <v>2703.766913963881</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>761.1949890928931</v>
+        <v>771.4380394911911</v>
       </c>
       <c r="C36" t="n">
-        <v>627.1999178418388</v>
+        <v>637.4429682401368</v>
       </c>
       <c r="D36" t="n">
-        <v>510.3027600612312</v>
+        <v>520.5458104595292</v>
       </c>
       <c r="E36" t="n">
-        <v>389.8099440535592</v>
+        <v>400.0529944518572</v>
       </c>
       <c r="F36" t="n">
-        <v>280.8500642360638</v>
+        <v>291.0931146343618</v>
       </c>
       <c r="G36" t="n">
-        <v>173.8599515504025</v>
+        <v>184.1030019487005</v>
       </c>
       <c r="H36" t="n">
-        <v>103.1127385861185</v>
+        <v>113.3557889844165</v>
       </c>
       <c r="I36" t="n">
-        <v>82.36414720635868</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="J36" t="n">
-        <v>275.1770047689919</v>
+        <v>285.4200551672899</v>
       </c>
       <c r="K36" t="n">
-        <v>730.9832610342906</v>
+        <v>285.4200551672899</v>
       </c>
       <c r="L36" t="n">
-        <v>730.9832610342906</v>
+        <v>285.4200551672899</v>
       </c>
       <c r="M36" t="n">
-        <v>730.9832610342906</v>
+        <v>1128.397135861857</v>
       </c>
       <c r="N36" t="n">
-        <v>730.9832610342906</v>
+        <v>1128.397135861857</v>
       </c>
       <c r="O36" t="n">
-        <v>1187.743466521715</v>
+        <v>1789.251928771173</v>
       </c>
       <c r="P36" t="n">
-        <v>1749.449359010245</v>
+        <v>1789.251928771173</v>
       </c>
       <c r="Q36" t="n">
-        <v>2099.293823694229</v>
+        <v>2139.096393455157</v>
       </c>
       <c r="R36" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.096393455157</v>
       </c>
       <c r="S36" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.106383569466</v>
       </c>
       <c r="T36" t="n">
-        <v>1861.521469358176</v>
+        <v>1871.764519756474</v>
       </c>
       <c r="U36" t="n">
-        <v>1664.170658496394</v>
+        <v>1674.413708894693</v>
       </c>
       <c r="V36" t="n">
-        <v>1450.459131489428</v>
+        <v>1460.702181887727</v>
       </c>
       <c r="W36" t="n">
-        <v>1237.225963225757</v>
+        <v>1247.469013624055</v>
       </c>
       <c r="X36" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.143031762948</v>
       </c>
       <c r="Y36" t="n">
-        <v>901.4980217284798</v>
+        <v>911.7410721267778</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>714.3405672578622</v>
+        <v>407.3359460786349</v>
       </c>
       <c r="C37" t="n">
-        <v>608.5839705695263</v>
+        <v>268.1187180891921</v>
       </c>
       <c r="D37" t="n">
-        <v>514.4261016423839</v>
+        <v>268.1187180891921</v>
       </c>
       <c r="E37" t="n">
-        <v>418.8520622606509</v>
+        <v>139.0840474063523</v>
       </c>
       <c r="F37" t="n">
-        <v>319.5577121211897</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="G37" t="n">
-        <v>217.6440967966807</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="H37" t="n">
-        <v>133.3734173520849</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="I37" t="n">
-        <v>82.36414720635868</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="J37" t="n">
-        <v>160.483270524093</v>
+        <v>137.9315561841761</v>
       </c>
       <c r="K37" t="n">
-        <v>379.0721721588546</v>
+        <v>323.725693080723</v>
       </c>
       <c r="L37" t="n">
-        <v>703.0058463514388</v>
+        <v>614.8646025350926</v>
       </c>
       <c r="M37" t="n">
-        <v>1056.306476704456</v>
+        <v>935.3704681498946</v>
       </c>
       <c r="N37" t="n">
-        <v>1401.18183301123</v>
+        <v>1247.451059718454</v>
       </c>
       <c r="O37" t="n">
-        <v>1724.779017250228</v>
+        <v>1538.253479219237</v>
       </c>
       <c r="P37" t="n">
-        <v>1994.491031412364</v>
+        <v>1775.170728643158</v>
       </c>
       <c r="Q37" t="n">
-        <v>2124.055635127398</v>
+        <v>1871.940567619978</v>
       </c>
       <c r="R37" t="n">
-        <v>2104.119692552745</v>
+        <v>1871.940567619978</v>
       </c>
       <c r="S37" t="n">
-        <v>1983.064700182603</v>
+        <v>1717.424943948729</v>
       </c>
       <c r="T37" t="n">
-        <v>1808.852736909253</v>
+        <v>1509.752349374271</v>
       </c>
       <c r="U37" t="n">
-        <v>1591.391365205324</v>
+        <v>1258.830346369236</v>
       </c>
       <c r="V37" t="n">
-        <v>1382.842395894794</v>
+        <v>1016.820745757599</v>
       </c>
       <c r="W37" t="n">
-        <v>1169.109507153616</v>
+        <v>769.6272257153144</v>
       </c>
       <c r="X37" t="n">
-        <v>996.1024207632466</v>
+        <v>563.1595080238385</v>
       </c>
       <c r="Y37" t="n">
-        <v>836.7034979019589</v>
+        <v>563.1595080238385</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2080.954409242187</v>
+        <v>2325.421878748232</v>
       </c>
       <c r="C38" t="n">
-        <v>1736.166594305405</v>
+        <v>1947.173432510343</v>
       </c>
       <c r="D38" t="n">
-        <v>1397.039440148413</v>
+        <v>1574.585647052244</v>
       </c>
       <c r="E38" t="n">
-        <v>1048.036000415258</v>
+        <v>1192.121576017982</v>
       </c>
       <c r="F38" t="n">
-        <v>692.3423641188926</v>
+        <v>802.967308420511</v>
       </c>
       <c r="G38" t="n">
-        <v>348.9508557616724</v>
+        <v>426.1151687621841</v>
       </c>
       <c r="H38" t="n">
-        <v>103.3791341393379</v>
+        <v>147.0828158387427</v>
       </c>
       <c r="I38" t="n">
-        <v>82.36414720635868</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="J38" t="n">
-        <v>336.549618674113</v>
+        <v>346.792669072411</v>
       </c>
       <c r="K38" t="n">
-        <v>874.7091197831526</v>
+        <v>884.9521701814506</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.202545866449</v>
+        <v>1597.543569993689</v>
       </c>
       <c r="M38" t="n">
-        <v>1830.521136858203</v>
+        <v>2373.862160985443</v>
       </c>
       <c r="N38" t="n">
-        <v>2583.702153496821</v>
+        <v>3095.854673411721</v>
       </c>
       <c r="O38" t="n">
-        <v>3227.333009913926</v>
+        <v>3739.485529828826</v>
       </c>
       <c r="P38" t="n">
-        <v>3756.489707833077</v>
+        <v>4268.642227747978</v>
       </c>
       <c r="Q38" t="n">
-        <v>4077.650714628369</v>
+        <v>4589.803234543269</v>
       </c>
       <c r="R38" t="n">
-        <v>4118.207360317934</v>
+        <v>4630.359880232834</v>
       </c>
       <c r="S38" t="n">
-        <v>4048.263060861982</v>
+        <v>4526.954949475776</v>
       </c>
       <c r="T38" t="n">
-        <v>3891.393352558789</v>
+        <v>4336.624609871476</v>
       </c>
       <c r="U38" t="n">
-        <v>3699.669636568247</v>
+        <v>4111.440262579827</v>
       </c>
       <c r="V38" t="n">
-        <v>3415.168857654675</v>
+        <v>3793.478852365148</v>
       </c>
       <c r="W38" t="n">
-        <v>3096.745332539791</v>
+        <v>3441.594695949157</v>
       </c>
       <c r="X38" t="n">
-        <v>2761.438710458692</v>
+        <v>3072.827442566951</v>
       </c>
       <c r="Y38" t="n">
-        <v>2425.838813156729</v>
+        <v>2703.766913963881</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>761.1949890928931</v>
+        <v>771.4380394911911</v>
       </c>
       <c r="C39" t="n">
-        <v>627.1999178418388</v>
+        <v>637.4429682401368</v>
       </c>
       <c r="D39" t="n">
-        <v>510.3027600612312</v>
+        <v>520.5458104595292</v>
       </c>
       <c r="E39" t="n">
-        <v>389.8099440535592</v>
+        <v>400.0529944518572</v>
       </c>
       <c r="F39" t="n">
-        <v>280.8500642360638</v>
+        <v>291.0931146343618</v>
       </c>
       <c r="G39" t="n">
-        <v>173.8599515504025</v>
+        <v>184.1030019487005</v>
       </c>
       <c r="H39" t="n">
-        <v>103.1127385861185</v>
+        <v>113.3557889844165</v>
       </c>
       <c r="I39" t="n">
-        <v>82.36414720635868</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="J39" t="n">
-        <v>82.36414720635868</v>
+        <v>285.4200551672899</v>
       </c>
       <c r="K39" t="n">
-        <v>82.36414720635868</v>
+        <v>741.2263114325887</v>
       </c>
       <c r="L39" t="n">
-        <v>743.4523191256469</v>
+        <v>741.2263114325887</v>
       </c>
       <c r="M39" t="n">
-        <v>1586.429399820214</v>
+        <v>741.2263114325887</v>
       </c>
       <c r="N39" t="n">
-        <v>2128.853343056859</v>
+        <v>1197.986516920013</v>
       </c>
       <c r="O39" t="n">
-        <v>2128.853343056859</v>
+        <v>1197.986516920013</v>
       </c>
       <c r="P39" t="n">
-        <v>2128.853343056859</v>
+        <v>1759.692409408543</v>
       </c>
       <c r="Q39" t="n">
-        <v>2128.853343056859</v>
+        <v>2109.536874092527</v>
       </c>
       <c r="R39" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.096393455157</v>
       </c>
       <c r="S39" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.106383569466</v>
       </c>
       <c r="T39" t="n">
-        <v>1861.521469358176</v>
+        <v>1871.764519756474</v>
       </c>
       <c r="U39" t="n">
-        <v>1664.170658496394</v>
+        <v>1674.413708894693</v>
       </c>
       <c r="V39" t="n">
-        <v>1450.459131489428</v>
+        <v>1460.702181887727</v>
       </c>
       <c r="W39" t="n">
-        <v>1237.225963225757</v>
+        <v>1247.469013624055</v>
       </c>
       <c r="X39" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.143031762948</v>
       </c>
       <c r="Y39" t="n">
-        <v>901.4980217284798</v>
+        <v>911.7410721267778</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>714.3405672578622</v>
+        <v>561.644138014884</v>
       </c>
       <c r="C40" t="n">
-        <v>608.5839705695262</v>
+        <v>422.4269100254414</v>
       </c>
       <c r="D40" t="n">
-        <v>514.4261016423836</v>
+        <v>294.8084097971923</v>
       </c>
       <c r="E40" t="n">
-        <v>418.8520622606507</v>
+        <v>294.8084097971923</v>
       </c>
       <c r="F40" t="n">
-        <v>319.5577121211895</v>
+        <v>294.8084097971923</v>
       </c>
       <c r="G40" t="n">
-        <v>217.6440967966805</v>
+        <v>294.8084097971923</v>
       </c>
       <c r="H40" t="n">
-        <v>133.3734173520849</v>
+        <v>177.0770990514897</v>
       </c>
       <c r="I40" t="n">
-        <v>82.36414720635868</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="J40" t="n">
-        <v>160.4832705240929</v>
+        <v>137.9315561841761</v>
       </c>
       <c r="K40" t="n">
-        <v>379.0721721588545</v>
+        <v>323.725693080723</v>
       </c>
       <c r="L40" t="n">
-        <v>703.0058463514387</v>
+        <v>614.8646025350924</v>
       </c>
       <c r="M40" t="n">
-        <v>1056.306476704456</v>
+        <v>935.3704681498946</v>
       </c>
       <c r="N40" t="n">
-        <v>1401.18183301123</v>
+        <v>1247.451059718454</v>
       </c>
       <c r="O40" t="n">
-        <v>1724.779017250228</v>
+        <v>1538.253479219237</v>
       </c>
       <c r="P40" t="n">
-        <v>1994.491031412364</v>
+        <v>1775.170728643158</v>
       </c>
       <c r="Q40" t="n">
-        <v>2124.055635127398</v>
+        <v>1871.940567619978</v>
       </c>
       <c r="R40" t="n">
-        <v>2104.119692552745</v>
+        <v>1871.940567619978</v>
       </c>
       <c r="S40" t="n">
-        <v>1983.064700182603</v>
+        <v>1717.424943948729</v>
       </c>
       <c r="T40" t="n">
-        <v>1808.852736909253</v>
+        <v>1509.752349374272</v>
       </c>
       <c r="U40" t="n">
-        <v>1591.391365205324</v>
+        <v>1258.830346369237</v>
       </c>
       <c r="V40" t="n">
-        <v>1382.842395894794</v>
+        <v>1258.830346369237</v>
       </c>
       <c r="W40" t="n">
-        <v>1169.109507153616</v>
+        <v>1011.636826326952</v>
       </c>
       <c r="X40" t="n">
-        <v>996.1024207632468</v>
+        <v>805.1691086354761</v>
       </c>
       <c r="Y40" t="n">
-        <v>836.7034979019589</v>
+        <v>612.3095544730816</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2224.561019833579</v>
+        <v>2325.421878748233</v>
       </c>
       <c r="C41" t="n">
-        <v>1852.336271976068</v>
+        <v>1947.173432510344</v>
       </c>
       <c r="D41" t="n">
-        <v>1485.772184898348</v>
+        <v>1574.585647052246</v>
       </c>
       <c r="E41" t="n">
-        <v>1109.331812244463</v>
+        <v>1192.121576017983</v>
       </c>
       <c r="F41" t="n">
-        <v>726.2012430273699</v>
+        <v>802.9673084205109</v>
       </c>
       <c r="G41" t="n">
-        <v>355.3728017494216</v>
+        <v>426.1151687621839</v>
       </c>
       <c r="H41" t="n">
-        <v>82.36414720635868</v>
+        <v>147.0828158387427</v>
       </c>
       <c r="I41" t="n">
-        <v>82.36414720635868</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="J41" t="n">
-        <v>82.36414720635868</v>
+        <v>346.792669072411</v>
       </c>
       <c r="K41" t="n">
-        <v>620.5236483153982</v>
+        <v>884.9521701814506</v>
       </c>
       <c r="L41" t="n">
-        <v>1333.115048127636</v>
+        <v>1597.543569993689</v>
       </c>
       <c r="M41" t="n">
-        <v>2109.43363911939</v>
+        <v>2373.862160985443</v>
       </c>
       <c r="N41" t="n">
-        <v>2862.614655758008</v>
+        <v>3095.854673411721</v>
       </c>
       <c r="O41" t="n">
-        <v>3506.245512175113</v>
+        <v>3739.485529828826</v>
       </c>
       <c r="P41" t="n">
-        <v>4035.402210094265</v>
+        <v>4268.642227747978</v>
       </c>
       <c r="Q41" t="n">
-        <v>4118.207360317934</v>
+        <v>4589.803234543269</v>
       </c>
       <c r="R41" t="n">
-        <v>4118.207360317934</v>
+        <v>4630.359880232834</v>
       </c>
       <c r="S41" t="n">
-        <v>4118.207360317934</v>
+        <v>4526.954949475776</v>
       </c>
       <c r="T41" t="n">
-        <v>4118.207360317934</v>
+        <v>4336.624609871476</v>
       </c>
       <c r="U41" t="n">
-        <v>3980.460911763281</v>
+        <v>4111.440262579827</v>
       </c>
       <c r="V41" t="n">
-        <v>3668.523199928981</v>
+        <v>3793.478852365148</v>
       </c>
       <c r="W41" t="n">
-        <v>3322.662741893369</v>
+        <v>3441.594695949158</v>
       </c>
       <c r="X41" t="n">
-        <v>2959.91918689154</v>
+        <v>3072.827442566951</v>
       </c>
       <c r="Y41" t="n">
-        <v>2596.882356668849</v>
+        <v>2703.766913963882</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>761.1949890928931</v>
+        <v>771.4380394911911</v>
       </c>
       <c r="C42" t="n">
-        <v>627.1999178418388</v>
+        <v>637.4429682401368</v>
       </c>
       <c r="D42" t="n">
-        <v>510.3027600612312</v>
+        <v>520.5458104595292</v>
       </c>
       <c r="E42" t="n">
-        <v>389.8099440535592</v>
+        <v>400.0529944518572</v>
       </c>
       <c r="F42" t="n">
-        <v>280.8500642360638</v>
+        <v>291.0931146343618</v>
       </c>
       <c r="G42" t="n">
-        <v>173.8599515504025</v>
+        <v>184.1030019487005</v>
       </c>
       <c r="H42" t="n">
-        <v>103.1127385861185</v>
+        <v>113.3557889844165</v>
       </c>
       <c r="I42" t="n">
-        <v>82.36414720635868</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="J42" t="n">
-        <v>275.1770047689919</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="K42" t="n">
-        <v>730.9832610342906</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="L42" t="n">
-        <v>1187.743466521715</v>
+        <v>212.7582381680825</v>
       </c>
       <c r="M42" t="n">
-        <v>1187.743466521715</v>
+        <v>1055.735318862649</v>
       </c>
       <c r="N42" t="n">
-        <v>1187.743466521715</v>
+        <v>1055.735318862649</v>
       </c>
       <c r="O42" t="n">
-        <v>1187.743466521715</v>
+        <v>1759.692409408543</v>
       </c>
       <c r="P42" t="n">
-        <v>1749.449359010245</v>
+        <v>1759.692409408543</v>
       </c>
       <c r="Q42" t="n">
-        <v>2099.293823694229</v>
+        <v>2109.536874092527</v>
       </c>
       <c r="R42" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.096393455157</v>
       </c>
       <c r="S42" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.106383569466</v>
       </c>
       <c r="T42" t="n">
-        <v>1861.521469358176</v>
+        <v>1871.764519756474</v>
       </c>
       <c r="U42" t="n">
-        <v>1664.170658496394</v>
+        <v>1674.413708894693</v>
       </c>
       <c r="V42" t="n">
-        <v>1450.459131489428</v>
+        <v>1460.702181887727</v>
       </c>
       <c r="W42" t="n">
-        <v>1237.225963225757</v>
+        <v>1247.469013624055</v>
       </c>
       <c r="X42" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.143031762948</v>
       </c>
       <c r="Y42" t="n">
-        <v>901.4980217284798</v>
+        <v>911.7410721267778</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>446.433280119382</v>
+        <v>161.0798180404811</v>
       </c>
       <c r="C43" t="n">
-        <v>446.433280119382</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="D43" t="n">
-        <v>446.433280119382</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="E43" t="n">
-        <v>323.4223078169205</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="F43" t="n">
-        <v>323.4223078169205</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="G43" t="n">
-        <v>194.071759571683</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="H43" t="n">
-        <v>82.36414720635868</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="I43" t="n">
-        <v>82.36414720635868</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="J43" t="n">
-        <v>133.5923325684868</v>
+        <v>137.9315561841761</v>
       </c>
       <c r="K43" t="n">
-        <v>325.2902962476423</v>
+        <v>323.725693080723</v>
       </c>
       <c r="L43" t="n">
-        <v>622.3330324846205</v>
+        <v>614.8646025350924</v>
       </c>
       <c r="M43" t="n">
-        <v>948.7427248820313</v>
+        <v>935.3704681498946</v>
       </c>
       <c r="N43" t="n">
-        <v>1266.727143233199</v>
+        <v>1247.451059718454</v>
       </c>
       <c r="O43" t="n">
-        <v>1563.433389516591</v>
+        <v>1538.253479219237</v>
       </c>
       <c r="P43" t="n">
-        <v>1806.254465723121</v>
+        <v>1775.170728643158</v>
       </c>
       <c r="Q43" t="n">
-        <v>1908.928131482549</v>
+        <v>1871.940567619978</v>
       </c>
       <c r="R43" t="n">
-        <v>1861.555255987168</v>
+        <v>1818.543993744218</v>
       </c>
       <c r="S43" t="n">
-        <v>1861.555255987168</v>
+        <v>1664.028370072969</v>
       </c>
       <c r="T43" t="n">
-        <v>1659.906359793089</v>
+        <v>1456.355775498512</v>
       </c>
       <c r="U43" t="n">
-        <v>1415.008055168433</v>
+        <v>1205.433772493477</v>
       </c>
       <c r="V43" t="n">
-        <v>1179.022152937173</v>
+        <v>963.4241718818398</v>
       </c>
       <c r="W43" t="n">
-        <v>937.8523312752668</v>
+        <v>716.230651839555</v>
       </c>
       <c r="X43" t="n">
-        <v>737.4083119641693</v>
+        <v>509.7629341480792</v>
       </c>
       <c r="Y43" t="n">
-        <v>550.572456182153</v>
+        <v>316.9033799856847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2224.561019833579</v>
+        <v>2325.421878748233</v>
       </c>
       <c r="C44" t="n">
-        <v>1852.336271976068</v>
+        <v>1947.173432510344</v>
       </c>
       <c r="D44" t="n">
-        <v>1485.772184898348</v>
+        <v>1574.585647052245</v>
       </c>
       <c r="E44" t="n">
-        <v>1109.331812244464</v>
+        <v>1192.121576017983</v>
       </c>
       <c r="F44" t="n">
-        <v>726.2012430273703</v>
+        <v>802.9673084205111</v>
       </c>
       <c r="G44" t="n">
-        <v>355.3728017494216</v>
+        <v>426.1151687621841</v>
       </c>
       <c r="H44" t="n">
-        <v>82.36414720635868</v>
+        <v>147.0828158387427</v>
       </c>
       <c r="I44" t="n">
-        <v>82.36414720635868</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="J44" t="n">
-        <v>82.36414720635868</v>
+        <v>346.792669072411</v>
       </c>
       <c r="K44" t="n">
-        <v>382.1677917437758</v>
+        <v>884.9521701814506</v>
       </c>
       <c r="L44" t="n">
-        <v>1094.759191556014</v>
+        <v>1597.543569993689</v>
       </c>
       <c r="M44" t="n">
-        <v>1871.077782547768</v>
+        <v>2373.862160985443</v>
       </c>
       <c r="N44" t="n">
-        <v>2624.258799186386</v>
+        <v>3127.043177624061</v>
       </c>
       <c r="O44" t="n">
-        <v>3267.889655603491</v>
+        <v>3770.674034041166</v>
       </c>
       <c r="P44" t="n">
-        <v>3797.046353522642</v>
+        <v>4299.830731960317</v>
       </c>
       <c r="Q44" t="n">
-        <v>4118.207360317934</v>
+        <v>4620.991738755609</v>
       </c>
       <c r="R44" t="n">
-        <v>4118.207360317934</v>
+        <v>4630.359880232834</v>
       </c>
       <c r="S44" t="n">
-        <v>4020.826127941254</v>
+        <v>4526.954949475776</v>
       </c>
       <c r="T44" t="n">
-        <v>3980.460911763281</v>
+        <v>4336.624609871476</v>
       </c>
       <c r="U44" t="n">
-        <v>3980.460911763281</v>
+        <v>4111.440262579827</v>
       </c>
       <c r="V44" t="n">
-        <v>3668.523199928981</v>
+        <v>3793.478852365148</v>
       </c>
       <c r="W44" t="n">
-        <v>3322.662741893369</v>
+        <v>3441.594695949158</v>
       </c>
       <c r="X44" t="n">
-        <v>2959.91918689154</v>
+        <v>3072.827442566951</v>
       </c>
       <c r="Y44" t="n">
-        <v>2596.882356668849</v>
+        <v>2703.766913963882</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>761.1949890928931</v>
+        <v>771.4380394911911</v>
       </c>
       <c r="C45" t="n">
-        <v>627.1999178418388</v>
+        <v>637.4429682401368</v>
       </c>
       <c r="D45" t="n">
-        <v>510.3027600612312</v>
+        <v>520.5458104595292</v>
       </c>
       <c r="E45" t="n">
-        <v>389.8099440535592</v>
+        <v>400.0529944518572</v>
       </c>
       <c r="F45" t="n">
-        <v>280.8500642360638</v>
+        <v>291.0931146343618</v>
       </c>
       <c r="G45" t="n">
-        <v>173.8599515504025</v>
+        <v>184.1030019487005</v>
       </c>
       <c r="H45" t="n">
-        <v>103.1127385861185</v>
+        <v>113.3557889844165</v>
       </c>
       <c r="I45" t="n">
-        <v>82.36414720635868</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="J45" t="n">
-        <v>275.1770047689919</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="K45" t="n">
-        <v>730.9832610342906</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="L45" t="n">
-        <v>730.9832610342906</v>
+        <v>753.6953695239449</v>
       </c>
       <c r="M45" t="n">
-        <v>1424.896252510964</v>
+        <v>753.6953695239449</v>
       </c>
       <c r="N45" t="n">
-        <v>1424.896252510964</v>
+        <v>1197.986516920013</v>
       </c>
       <c r="O45" t="n">
-        <v>2128.853343056859</v>
+        <v>1197.986516920013</v>
       </c>
       <c r="P45" t="n">
-        <v>2128.853343056859</v>
+        <v>1759.692409408543</v>
       </c>
       <c r="Q45" t="n">
-        <v>2128.853343056859</v>
+        <v>2109.536874092527</v>
       </c>
       <c r="R45" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.096393455157</v>
       </c>
       <c r="S45" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.106383569466</v>
       </c>
       <c r="T45" t="n">
-        <v>1861.521469358176</v>
+        <v>1871.764519756474</v>
       </c>
       <c r="U45" t="n">
-        <v>1664.170658496394</v>
+        <v>1674.413708894693</v>
       </c>
       <c r="V45" t="n">
-        <v>1450.459131489428</v>
+        <v>1460.702181887727</v>
       </c>
       <c r="W45" t="n">
-        <v>1237.225963225757</v>
+        <v>1247.469013624055</v>
       </c>
       <c r="X45" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.143031762948</v>
       </c>
       <c r="Y45" t="n">
-        <v>901.4980217284798</v>
+        <v>911.7410721267778</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>449.453406386664</v>
+        <v>161.0798180404813</v>
       </c>
       <c r="C46" t="n">
-        <v>316.2598767775996</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="D46" t="n">
-        <v>194.6650749297286</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="E46" t="n">
-        <v>194.6650749297286</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="F46" t="n">
-        <v>160.8103502728135</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="G46" t="n">
-        <v>160.8103502728135</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="H46" t="n">
-        <v>160.8103502728135</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="I46" t="n">
-        <v>82.36414720635868</v>
+        <v>92.60719760465669</v>
       </c>
       <c r="J46" t="n">
-        <v>133.5923325684868</v>
+        <v>137.9315561841761</v>
       </c>
       <c r="K46" t="n">
-        <v>325.2902962476424</v>
+        <v>323.725693080723</v>
       </c>
       <c r="L46" t="n">
-        <v>622.3330324846206</v>
+        <v>614.8646025350924</v>
       </c>
       <c r="M46" t="n">
-        <v>948.7427248820316</v>
+        <v>935.3704681498946</v>
       </c>
       <c r="N46" t="n">
-        <v>1266.7271432332</v>
+        <v>1247.451059718454</v>
       </c>
       <c r="O46" t="n">
-        <v>1563.433389516591</v>
+        <v>1538.253479219237</v>
       </c>
       <c r="P46" t="n">
-        <v>1806.254465723121</v>
+        <v>1775.170728643158</v>
       </c>
       <c r="Q46" t="n">
-        <v>1908.92813148255</v>
+        <v>1871.940567619978</v>
       </c>
       <c r="R46" t="n">
-        <v>1908.92813148255</v>
+        <v>1818.543993744218</v>
       </c>
       <c r="S46" t="n">
-        <v>1760.436206191679</v>
+        <v>1664.028370072969</v>
       </c>
       <c r="T46" t="n">
-        <v>1558.7873099976</v>
+        <v>1456.355775498512</v>
       </c>
       <c r="U46" t="n">
-        <v>1313.889005372943</v>
+        <v>1205.433772493477</v>
       </c>
       <c r="V46" t="n">
-        <v>1077.903103141684</v>
+        <v>963.4241718818399</v>
       </c>
       <c r="W46" t="n">
-        <v>836.7332814797778</v>
+        <v>716.2306518395551</v>
       </c>
       <c r="X46" t="n">
-        <v>636.2892621686802</v>
+        <v>509.7629341480794</v>
       </c>
       <c r="Y46" t="n">
-        <v>449.453406386664</v>
+        <v>316.9033799856849</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.46409893892091</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
@@ -7985,22 +7985,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N2" t="n">
-        <v>109.7323986824686</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O2" t="n">
-        <v>110.0098835516324</v>
+        <v>483.342555376</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>166.7035252126741</v>
       </c>
       <c r="R2" t="n">
-        <v>104.1322507405728</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8055,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>272.5176252944898</v>
       </c>
       <c r="M3" t="n">
-        <v>74.38439166426673</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O3" t="n">
-        <v>74.57158692584929</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>71.07974292865305</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.83312611045169</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K4" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L4" t="n">
-        <v>54.62829389390151</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M4" t="n">
-        <v>73.08505042462934</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N4" t="n">
-        <v>68.53275343426874</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O4" t="n">
-        <v>72.89500599884562</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P4" t="n">
-        <v>71.92034924551776</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>225.8905432416383</v>
+        <v>609.6899498898824</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>616.0389582795102</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>613.8437846737108</v>
       </c>
       <c r="N5" t="n">
-        <v>183.1747152015035</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4035168493054</v>
+        <v>336.4174549355083</v>
       </c>
       <c r="Q5" t="n">
-        <v>226.7879579675732</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8292,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>188.1233923684212</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>201.9686287662806</v>
       </c>
       <c r="L6" t="n">
-        <v>192.8686773792703</v>
+        <v>576.6680840275144</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>573.7469536104153</v>
       </c>
       <c r="O6" t="n">
-        <v>194.5056325684212</v>
+        <v>578.3050392166654</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>187.9213517270611</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K7" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L7" t="n">
-        <v>54.62829389390151</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M7" t="n">
-        <v>193.0190960672012</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N7" t="n">
-        <v>116.7514496371965</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O7" t="n">
-        <v>192.8290516414175</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P7" t="n">
-        <v>192.533995208326</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q7" t="n">
         <v>127.5494547533709</v>
@@ -8453,25 +8453,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>479.289169423434</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L8" t="n">
-        <v>145.4693717673035</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>483.8021430311011</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8529,31 +8529,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>402.095214445565</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>447.9042587502169</v>
+        <v>72.2360729453882</v>
       </c>
       <c r="P9" t="n">
-        <v>444.4124147530206</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>156.9651572158024</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8699,7 +8699,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>853.701196452193</v>
+        <v>315.2183947057874</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8708,10 +8708,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
@@ -8775,19 +8775,19 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>197.7527798381151</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>605.6544519663082</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8936,16 +8936,16 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>639.6234520747691</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>743.321953824879</v>
+        <v>204.8391520784733</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9006,28 +9006,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>713.8858861212705</v>
+        <v>574.6635313430241</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>815.2746908024792</v>
+        <v>276.7918890560734</v>
       </c>
       <c r="M17" t="n">
         <v>877.4504173780091</v>
@@ -9176,7 +9176,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>204.8391520784733</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
         <v>628.1510783507341</v>
@@ -9240,31 +9240,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>415.2474391004463</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>156.9651572158024</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9413,16 +9413,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>204.8391520784733</v>
       </c>
       <c r="P20" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>716.0333888118391</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>519.1254239367925</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>574.5111993159919</v>
       </c>
       <c r="M23" t="n">
         <v>877.4504173780091</v>
@@ -9650,7 +9650,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O23" t="n">
-        <v>245.8054608558115</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
         <v>628.1510783507341</v>
@@ -9714,31 +9714,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>517.4884687476415</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>915.4839494260225</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>418.5520878360603</v>
+        <v>743.5567912259809</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
@@ -9969,13 +9969,13 @@
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
@@ -10197,22 +10197,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>517.9682778917476</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>391.9683538524263</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L32" t="n">
         <v>815.2746908024792</v>
@@ -10370,7 +10370,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,19 +10428,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>574.4763360814416</v>
+        <v>70.76403821083073</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>391.9683538524263</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10607,7 +10607,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31214281472352</v>
+        <v>96.77491198363809</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,28 +10665,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>519.1254239367925</v>
+        <v>725.2815728477947</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,13 +10826,13 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
-        <v>276.7918890560734</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
-        <v>853.701196452193</v>
+        <v>822.1976568437694</v>
       </c>
       <c r="O38" t="n">
         <v>743.321953824879</v>
@@ -10899,31 +10899,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>601.0963663600581</v>
+        <v>514.5673383305426</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11069,7 +11069,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>853.701196452193</v>
+        <v>822.1976568437694</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11078,10 +11078,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>173.6753702816465</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,25 +11136,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>517.4884687476415</v>
+        <v>177.4792112486529</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>391.9683538524263</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11318,7 +11318,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>96.77491198363809</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>758.4864973512192</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>501.9723301574555</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.619207319317357e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-2.984279490192421e-13</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-13</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.121147867408581e-13</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>96.68066889734459</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
         <v>133.4858729041767</v>
@@ -24619,7 +24619,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>37.41613562870945</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>31.59552904947315</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>118.6124389162599</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>100.4001580207504</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>181.6431164698909</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>126.3423152259667</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>85.41535032248359</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>134.0205041593596</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>116.5539976382455</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>83.62520243236473</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>52.86260813700197</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>190.9309586207706</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>104.1065640321362</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>127.7443239760113</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>131.4274316261622</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>134.0205041593596</v>
       </c>
       <c r="H40" t="n">
-        <v>1.56319401867222e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>52.86260813700194</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>239.5895046055209</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>47.96740065517072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>96.4074200529133</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>182.4635748116829</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>80.60005835305202</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>45.20408062703363</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>131.8615943129738</v>
+        <v>70.0371614780821</v>
       </c>
       <c r="D43" t="n">
-        <v>120.3788538293922</v>
+        <v>126.3423152259667</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>127.7443239760113</v>
       </c>
       <c r="F43" t="n">
-        <v>125.4639702295878</v>
+        <v>131.4274316261622</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>134.0205041593596</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>116.5539976382455</v>
       </c>
       <c r="I43" t="n">
-        <v>77.66174103579026</v>
+        <v>83.62520243236469</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>147.007006037962</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>47.96740065517069</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25916,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>142.5020107954898</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>216.9690424221581</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.3018649291771</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>70.03716147808187</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>126.3423152259667</v>
       </c>
       <c r="E46" t="n">
-        <v>121.7808625794368</v>
+        <v>127.7443239760113</v>
       </c>
       <c r="F46" t="n">
-        <v>91.9477928192418</v>
+        <v>131.4274316261622</v>
       </c>
       <c r="G46" t="n">
-        <v>128.0570427627851</v>
+        <v>134.0205041593596</v>
       </c>
       <c r="H46" t="n">
-        <v>110.590536241671</v>
+        <v>116.5539976382455</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.62520243236469</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.89914674042747</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>542569.3110829855</v>
+        <v>585734.1100200607</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>556436.1096692798</v>
+        <v>598332.6694645605</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>585734.1100200607</v>
+        <v>598478.5577990541</v>
       </c>
     </row>
     <row r="5">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>630468.977955414</v>
+        <v>622936.1683507608</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>630468.977955414</v>
+        <v>623376.8698271557</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>630468.977955414</v>
+        <v>623376.8698271557</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>592089.8140881963</v>
+        <v>623376.8698271557</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>592089.8140881964</v>
+        <v>623376.8698271556</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>618953.0935233365</v>
       </c>
       <c r="C2" t="n">
+        <v>618953.0935233365</v>
+      </c>
+      <c r="D2" t="n">
+        <v>618953.0935233361</v>
+      </c>
+      <c r="E2" t="n">
+        <v>618953.0935233354</v>
+      </c>
+      <c r="F2" t="n">
+        <v>618953.0935233358</v>
+      </c>
+      <c r="G2" t="n">
+        <v>618953.0935233368</v>
+      </c>
+      <c r="H2" t="n">
         <v>618953.093523336</v>
       </c>
-      <c r="D2" t="n">
-        <v>618953.0935233368</v>
-      </c>
-      <c r="E2" t="n">
-        <v>618953.0935233356</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>618953.0935233361</v>
       </c>
-      <c r="G2" t="n">
-        <v>618953.093523336</v>
-      </c>
-      <c r="H2" t="n">
-        <v>618953.0935233363</v>
-      </c>
-      <c r="I2" t="n">
-        <v>618953.0935233351</v>
-      </c>
       <c r="J2" t="n">
-        <v>599827.8647507949</v>
+        <v>599827.8647507947</v>
       </c>
       <c r="K2" t="n">
-        <v>599827.8647507949</v>
+        <v>599827.8647507951</v>
       </c>
       <c r="L2" t="n">
-        <v>618953.0935233355</v>
+        <v>599827.8647507951</v>
       </c>
       <c r="M2" t="n">
-        <v>618953.0935233353</v>
+        <v>600946.7721703108</v>
       </c>
       <c r="N2" t="n">
-        <v>618953.0935233361</v>
+        <v>600946.7721703108</v>
       </c>
       <c r="O2" t="n">
-        <v>573377.8364310156</v>
+        <v>600946.7721703111</v>
       </c>
       <c r="P2" t="n">
-        <v>573377.8364310154</v>
+        <v>600946.772170311</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5636.805028434394</v>
+        <v>130749.1700082319</v>
       </c>
       <c r="C3" t="n">
-        <v>38747.17440050102</v>
+        <v>42128.66960023091</v>
       </c>
       <c r="D3" t="n">
-        <v>78713.21525085119</v>
+        <v>469.0544539382741</v>
       </c>
       <c r="E3" t="n">
-        <v>242657.2190289503</v>
+        <v>203271.5589872691</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63582.14753553128</v>
+        <v>161262.4011223462</v>
       </c>
       <c r="K3" t="n">
-        <v>30867.18545893745</v>
+        <v>33560.98806708891</v>
       </c>
       <c r="L3" t="n">
-        <v>57861.53081670386</v>
+        <v>382.1699797240825</v>
       </c>
       <c r="M3" t="n">
-        <v>159340.8034302946</v>
+        <v>126132.1301942985</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1869.102507853381</v>
+        <v>23599.15338107041</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>332425.3313177897</v>
+        <v>255180.0220455301</v>
       </c>
       <c r="C4" t="n">
-        <v>307610.0843621412</v>
+        <v>232634.3449049039</v>
       </c>
       <c r="D4" t="n">
-        <v>255180.0220455301</v>
+        <v>232373.2713033891</v>
       </c>
       <c r="E4" t="n">
         <v>175284.6946798806</v>
       </c>
       <c r="F4" t="n">
-        <v>175284.6946798805</v>
+        <v>175284.6946798806</v>
       </c>
       <c r="G4" t="n">
         <v>175284.6946798806</v>
@@ -26445,19 +26445,19 @@
         <v>148366.1238023682</v>
       </c>
       <c r="L4" t="n">
-        <v>175284.6946798806</v>
+        <v>148366.1238023682</v>
       </c>
       <c r="M4" t="n">
-        <v>175284.6946798806</v>
+        <v>149940.9749602725</v>
       </c>
       <c r="N4" t="n">
-        <v>175284.6946798806</v>
+        <v>149940.9749602725</v>
       </c>
       <c r="O4" t="n">
-        <v>147835.682196227</v>
+        <v>149940.9749602725</v>
       </c>
       <c r="P4" t="n">
-        <v>147835.682196227</v>
+        <v>149940.9749602725</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34650.26256189164</v>
+        <v>57348.88900881319</v>
       </c>
       <c r="C5" t="n">
-        <v>41942.25253696</v>
+        <v>65277.25646117325</v>
       </c>
       <c r="D5" t="n">
-        <v>57348.88900881319</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>68034.62130334972</v>
@@ -26497,19 +26497,19 @@
         <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
-        <v>68034.62130334972</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="M5" t="n">
-        <v>68034.62130334972</v>
+        <v>73034.46781133197</v>
       </c>
       <c r="N5" t="n">
-        <v>68034.62130334972</v>
+        <v>73034.46781133197</v>
       </c>
       <c r="O5" t="n">
-        <v>65751.09174477412</v>
+        <v>73034.46781133197</v>
       </c>
       <c r="P5" t="n">
-        <v>65751.09174477412</v>
+        <v>73034.46781133198</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>246240.6946152207</v>
+        <v>175675.0124607612</v>
       </c>
       <c r="C6" t="n">
-        <v>230653.5822237337</v>
+        <v>278912.8225570284</v>
       </c>
       <c r="D6" t="n">
-        <v>227710.9672181423</v>
+        <v>320741.7026875112</v>
       </c>
       <c r="E6" t="n">
-        <v>132976.558511155</v>
+        <v>172362.218552836</v>
       </c>
       <c r="F6" t="n">
-        <v>375633.7775401059</v>
+        <v>375633.7775401055</v>
       </c>
       <c r="G6" t="n">
+        <v>375633.7775401065</v>
+      </c>
+      <c r="H6" t="n">
         <v>375633.7775401057</v>
       </c>
-      <c r="H6" t="n">
-        <v>375633.777540106</v>
-      </c>
       <c r="I6" t="n">
-        <v>375633.7775401048</v>
+        <v>375633.7775401058</v>
       </c>
       <c r="J6" t="n">
-        <v>314534.4366360306</v>
+        <v>216803.8534998141</v>
       </c>
       <c r="K6" t="n">
-        <v>347249.3987126244</v>
+        <v>344505.2665550717</v>
       </c>
       <c r="L6" t="n">
-        <v>317772.2467234013</v>
+        <v>377684.0846424365</v>
       </c>
       <c r="M6" t="n">
-        <v>216292.9741098104</v>
+        <v>251791.8141482156</v>
       </c>
       <c r="N6" t="n">
-        <v>375633.7775401058</v>
+        <v>377923.9443425142</v>
       </c>
       <c r="O6" t="n">
-        <v>357921.9599821611</v>
+        <v>354324.790961444</v>
       </c>
       <c r="P6" t="n">
-        <v>359791.0624900142</v>
+        <v>377923.9443425143</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>29.49894172633799</v>
       </c>
       <c r="L2" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M2" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="N2" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="O2" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C4" t="n">
-        <v>136.7541535684212</v>
+        <v>520.5535602166653</v>
       </c>
       <c r="D4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
         <v>1029.551840079484</v>
@@ -26817,19 +26817,19 @@
         <v>1165.546221132785</v>
       </c>
       <c r="L4" t="n">
-        <v>1029.551840079484</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="M4" t="n">
-        <v>1029.551840079484</v>
+        <v>1157.589970058209</v>
       </c>
       <c r="N4" t="n">
-        <v>1029.551840079484</v>
+        <v>1157.589970058209</v>
       </c>
       <c r="O4" t="n">
-        <v>1029.551840079484</v>
+        <v>1157.589970058209</v>
       </c>
       <c r="P4" t="n">
-        <v>1029.551840079484</v>
+        <v>1157.589970058209</v>
       </c>
     </row>
   </sheetData>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.18446626611012</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.058441278014385</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.336378134816727</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9340456425719</v>
+        <v>130.4007804664485</v>
       </c>
       <c r="D4" t="n">
-        <v>253.3986261817957</v>
+        <v>1.510010153360184</v>
       </c>
       <c r="E4" t="n">
-        <v>639.3990603292666</v>
+        <v>507.488269709458</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>152.8144889791506</v>
+        <v>526.1471608035183</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9340456425719</v>
+        <v>130.4007804664485</v>
       </c>
       <c r="L4" t="n">
-        <v>117.4042451284943</v>
+        <v>1.510010153360184</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292666</v>
+        <v>499.5320186348816</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>16.8201079258493</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9340456425719</v>
+        <v>130.4007804664485</v>
       </c>
       <c r="L4" t="n">
-        <v>253.3986261817957</v>
+        <v>1.510010153360184</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292666</v>
+        <v>507.488269709458</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>391.1231575969121</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>387.8208933402468</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>3.576836215327091</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>23.72273176891528</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>102.467779921746</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>91.05017309347116</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89.10010363295538</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>55.22458977355305</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>142.4815990545144</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>146.1647067046653</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>67.59988321550505</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>222.3381005719769</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>41.20913860021201</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -27619,22 +27619,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>112.6064454816715</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>272.5005588004058</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>171.045258830138</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>209.5850255484629</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>114.5630155873314</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>5.860047403160173</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>20.99429160644067</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>74.82025816847531</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>74.34668301261331</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,22 +27777,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>26.23066106209345</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>142.8409076162497</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>47.77369687046763</v>
+        <v>164.5937827585734</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>99.20626995049224</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>63.32595422364864</v>
-      </c>
       <c r="E8" t="n">
-        <v>20.04403357805535</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>26.66732817563241</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>257.6792709975591</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27941,16 +27941,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>50.75978341624909</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>197.677786066223</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.4209809967732</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244805</v>
       </c>
       <c r="C20" t="n">
         <v>64.68340799244811</v>
@@ -29104,7 +29104,7 @@
         <v>64.68340799244811</v>
       </c>
       <c r="Y23" t="n">
-        <v>64.68340799244817</v>
+        <v>64.68340799244811</v>
       </c>
     </row>
     <row r="24">
@@ -29235,7 +29235,7 @@
         <v>64.68340799244811</v>
       </c>
       <c r="P25" t="n">
-        <v>64.68340799244837</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Q25" t="n">
         <v>64.68340799244811</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C32" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D32" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E32" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F32" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G32" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H32" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I32" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T32" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U32" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V32" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W32" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X32" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y32" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.68340799244811</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="C35" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="D35" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="E35" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="F35" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="G35" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="H35" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="I35" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="T35" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="U35" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="V35" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="W35" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="X35" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="Y35" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="C37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="D37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="E37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="F37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="G37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="H37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="I37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="J37" t="n">
-        <v>64.68340799244825</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="K37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="L37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="M37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="N37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="O37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="P37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="R37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="S37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="T37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="U37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="V37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="W37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="X37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.68340799244811</v>
+        <v>31.55738300435238</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="C38" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="D38" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="E38" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="F38" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="G38" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="H38" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="I38" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.68340799244791</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="T38" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="U38" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="V38" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="W38" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="X38" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="Y38" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="C40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="D40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="E40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="F40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="G40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="H40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="I40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="J40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="K40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="L40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="M40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="N40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="O40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="P40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="R40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="S40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="T40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="U40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="V40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="W40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="X40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.68340799244811</v>
+        <v>31.5573830043524</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="C41" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="D41" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="E41" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="F41" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="G41" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="H41" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="I41" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="T41" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="U41" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="V41" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="W41" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="X41" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="Y41" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="C43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="D43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="E43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="F43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="G43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="H43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="I43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="J43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="K43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="L43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="M43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="N43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="O43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="P43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="R43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="S43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="T43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="U43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="V43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="W43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="X43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
       <c r="Y43" t="n">
-        <v>37.52084440092685</v>
+        <v>31.55738300435241</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="C44" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="D44" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="E44" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="F44" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="G44" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="H44" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="I44" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="T44" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="U44" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="V44" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="W44" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="X44" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="Y44" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="C46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="D46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="E46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="F46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="G46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="H46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="I46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="J46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="K46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="L46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="M46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="N46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="O46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="P46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="R46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="S46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="T46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="U46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="V46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="W46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="X46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
       <c r="Y46" t="n">
-        <v>37.52084440092688</v>
+        <v>31.55738300435242</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.14050760561297</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,22 +34705,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N2" t="n">
-        <v>16.8201079258493</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O2" t="n">
-        <v>16.8201079258493</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>76.66972081352203</v>
       </c>
       <c r="R2" t="n">
-        <v>16.8201079258493</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="M3" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O3" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.14050760561297</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M4" t="n">
-        <v>16.8201079258493</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N4" t="n">
-        <v>16.8201079258493</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O4" t="n">
-        <v>16.8201079258493</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P4" t="n">
-        <v>16.14050760561297</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>136.7541535684212</v>
+        <v>520.5535602166653</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>520.5535602166653</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>520.5535602166653</v>
       </c>
       <c r="N5" t="n">
-        <v>90.2624244448842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>136.7541535684212</v>
+        <v>242.7680916546242</v>
       </c>
       <c r="Q5" t="n">
-        <v>136.7541535684212</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>136.7541535684212</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>146.1428459816652</v>
       </c>
       <c r="L6" t="n">
-        <v>136.7541535684212</v>
+        <v>520.5535602166653</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>520.5535602166653</v>
       </c>
       <c r="O6" t="n">
-        <v>136.7541535684212</v>
+        <v>520.5535602166653</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>131.2287332222224</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M7" t="n">
-        <v>136.7541535684212</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N7" t="n">
-        <v>65.03880412877707</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O7" t="n">
-        <v>136.7541535684212</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P7" t="n">
-        <v>136.7541535684212</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q7" t="n">
         <v>66.18992909344529</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>390.1527797502169</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L8" t="n">
-        <v>49.98397370445868</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>344.5309307071475</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>390.1527797502169</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="P9" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>83.64156588249449</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35419,7 +35419,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>760.7889056955737</v>
+        <v>222.306103949168</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35428,10 +35428,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>140.1884960996976</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>547.9029729663082</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,16 +35656,16 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>546.7111613181498</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>650.1321781990958</v>
+        <v>111.6493764526901</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>656.1344071212704</v>
+        <v>516.9120523430241</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>719.7892927396343</v>
+        <v>181.3064909932286</v>
       </c>
       <c r="M17" t="n">
         <v>784.1601929209636</v>
@@ -35896,7 +35896,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>111.6493764526901</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
         <v>534.50171506985</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>360.9878040976426</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>83.64156588249449</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36133,16 +36133,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>111.6493764526901</v>
       </c>
       <c r="P20" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>658.4691050734217</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>461.3739449367924</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>29.85810036629282</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L23" t="n">
-        <v>719.7892927396343</v>
+        <v>479.0258012531471</v>
       </c>
       <c r="M23" t="n">
         <v>784.1601929209636</v>
@@ -36370,7 +36370,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O23" t="n">
-        <v>152.6156852300284</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P23" t="n">
         <v>534.50171506985</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>461.3739449367924</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>862.2905560322725</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36531,7 +36531,7 @@
         <v>326.8658426656543</v>
       </c>
       <c r="P25" t="n">
-        <v>272.4363779415518</v>
+        <v>272.4363779415515</v>
       </c>
       <c r="Q25" t="n">
         <v>130.8733370858934</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>360.9878040976428</v>
+        <v>685.9925074875634</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>463.7086428889438</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>302.8319641792092</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L32" t="n">
         <v>719.7892927396343</v>
@@ -37090,7 +37090,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>516.9120523430241</v>
+        <v>13.19975447241331</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.90820537144864</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K34" t="n">
-        <v>220.796870338143</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L34" t="n">
-        <v>327.2057315076608</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M34" t="n">
-        <v>356.869323588906</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N34" t="n">
-        <v>348.3589457644181</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O34" t="n">
-        <v>326.8658426656543</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P34" t="n">
-        <v>272.4363779415515</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>130.8733370858934</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>302.8319641792092</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37327,7 +37327,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>9.462769168914582</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>461.3739449367924</v>
+        <v>667.5300938477947</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.90820537144879</v>
+        <v>45.78218038335291</v>
       </c>
       <c r="K37" t="n">
-        <v>220.796870338143</v>
+        <v>187.6708453500473</v>
       </c>
       <c r="L37" t="n">
-        <v>327.2057315076608</v>
+        <v>294.0797065195651</v>
       </c>
       <c r="M37" t="n">
-        <v>356.869323588906</v>
+        <v>323.7432986008102</v>
       </c>
       <c r="N37" t="n">
-        <v>348.3589457644181</v>
+        <v>315.2329207763224</v>
       </c>
       <c r="O37" t="n">
-        <v>326.8658426656543</v>
+        <v>293.7398176775586</v>
       </c>
       <c r="P37" t="n">
-        <v>272.4363779415515</v>
+        <v>239.3103529534558</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.8733370858934</v>
+        <v>97.74731209779766</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,13 +37546,13 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
-        <v>181.3064909932286</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
-        <v>760.7889056955737</v>
+        <v>729.2853660871501</v>
       </c>
       <c r="O38" t="n">
         <v>650.1321781990958</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>547.9029729663082</v>
+        <v>461.3739449367927</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.90820537144864</v>
+        <v>45.78218038335293</v>
       </c>
       <c r="K40" t="n">
-        <v>220.796870338143</v>
+        <v>187.6708453500473</v>
       </c>
       <c r="L40" t="n">
-        <v>327.2057315076608</v>
+        <v>294.0797065195651</v>
       </c>
       <c r="M40" t="n">
-        <v>356.869323588906</v>
+        <v>323.7432986008102</v>
       </c>
       <c r="N40" t="n">
-        <v>348.3589457644181</v>
+        <v>315.2329207763224</v>
       </c>
       <c r="O40" t="n">
-        <v>326.8658426656543</v>
+        <v>293.7398176775586</v>
       </c>
       <c r="P40" t="n">
-        <v>272.4363779415515</v>
+        <v>239.3103529534558</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.8733370858934</v>
+        <v>97.74731209779769</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37789,7 +37789,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>760.7889056955737</v>
+        <v>729.2853660871501</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37798,10 +37798,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.64156588249439</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>461.3739449367924</v>
+        <v>121.3646874378038</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>51.74564177992738</v>
+        <v>45.78218038335294</v>
       </c>
       <c r="K43" t="n">
-        <v>193.6343067466218</v>
+        <v>187.6708453500473</v>
       </c>
       <c r="L43" t="n">
-        <v>300.0431679161395</v>
+        <v>294.0797065195651</v>
       </c>
       <c r="M43" t="n">
-        <v>329.7067599973847</v>
+        <v>323.7432986008102</v>
       </c>
       <c r="N43" t="n">
-        <v>321.1963821728968</v>
+        <v>315.2329207763224</v>
       </c>
       <c r="O43" t="n">
-        <v>299.7032790741331</v>
+        <v>293.7398176775586</v>
       </c>
       <c r="P43" t="n">
-        <v>245.2738143500302</v>
+        <v>239.3103529534558</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.7107734943721</v>
+        <v>97.7473120977977</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>302.8319641792092</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38038,7 +38038,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>9.462769168914582</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>700.9222136128018</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>448.7789367637055</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>51.7456417799274</v>
+        <v>45.78218038335295</v>
       </c>
       <c r="K46" t="n">
-        <v>193.6343067466218</v>
+        <v>187.6708453500474</v>
       </c>
       <c r="L46" t="n">
-        <v>300.0431679161396</v>
+        <v>294.0797065195651</v>
       </c>
       <c r="M46" t="n">
-        <v>329.7067599973847</v>
+        <v>323.7432986008102</v>
       </c>
       <c r="N46" t="n">
-        <v>321.1963821728968</v>
+        <v>315.2329207763224</v>
       </c>
       <c r="O46" t="n">
-        <v>299.7032790741331</v>
+        <v>293.7398176775586</v>
       </c>
       <c r="P46" t="n">
-        <v>245.2738143500303</v>
+        <v>239.3103529534558</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.7107734943722</v>
+        <v>97.7473120977977</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
